--- a/reporting/POAM-mysite-ruby-build-1-2020-07-15.xlsx
+++ b/reporting/POAM-mysite-ruby-build-1-2020-07-15.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="33600" windowHeight="16120" tabRatio="527" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="527" visibility="visible" windowHeight="16120" windowWidth="33600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,13 +12,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Key1" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="2" name="_Key1">#REF!</definedName>
     <definedName name="_Key1">#REF!</definedName>
-    <definedName name="Agency_Name" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="2" name="Agency_Name">#REF!</definedName>
     <definedName name="Agency_Name">#REF!</definedName>
-    <definedName name="Bureau_Names" localSheetId="2">#REF!</definedName>
+    <definedName localSheetId="2" name="Bureau_Names">#REF!</definedName>
     <definedName name="Bureau_Names">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Example'!$A$1:$O$12</definedName>
+    <definedName localSheetId="2" name="_xlnm.Print_Area">'Example'!$A$1:$O$12</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="0"/>
 </workbook>
@@ -27,8 +27,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" numFmtId="164"/>
+    <numFmt formatCode="[$-409]d\-mmm\-yy;@" numFmtId="165"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -739,416 +739,416 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="145">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" textRotation="60"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="13" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="14" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="11" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="6" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="17" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="5" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="1" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="22" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="1" fillId="14" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="1" fillId="15" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="1" fillId="16" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="22" fillId="17" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="22" fillId="16" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="22" fillId="0" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="26" fillId="14" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="26" fillId="15" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="27" fillId="15" fontId="21" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="2" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="15" fillId="10" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="12" fillId="10" fontId="14" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="9" fillId="3" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="23" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="5" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="24" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="25" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="16" fillId="6" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="17" fillId="6" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="20" fillId="6" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="18" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="19" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="12" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="21" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="28" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="29" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="30" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="8" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" applyProtection="1" borderId="1" fillId="0" fontId="8" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection hidden="0" locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf borderId="29" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="30" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="35" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="37" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf borderId="18" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="19" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="34" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="21" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="36" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="20" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf applyAlignment="1" borderId="32" fillId="13" fontId="20" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="25" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="33" fillId="0" fontId="16" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Hyperlink 2" xfId="2"/>
     <cellStyle name="Normal 5" xfId="3"/>
@@ -1366,9 +1366,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="headerRow" dxfId="25"/>
+  <tableStyles count="1" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9">
+    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0">
+      <tableStyleElement dxfId="25" type="headerRow"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1707,8 +1707,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col width="14.33203125" customWidth="1" min="1" max="1"/>
-    <col width="9.1640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col customWidth="1" max="1" min="1" width="14.33203125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="9.1640625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1793,7 +1793,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1811,19 +1811,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col width="7.83203125" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
-    <col width="7.33203125" bestFit="1" customWidth="1" style="9" min="2" max="3"/>
-    <col width="8.1640625" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
-    <col width="7.5" bestFit="1" customWidth="1" style="9" min="5" max="6"/>
-    <col width="8.5" bestFit="1" customWidth="1" style="9" min="7" max="7"/>
-    <col width="7.83203125" bestFit="1" customWidth="1" style="9" min="8" max="9"/>
-    <col width="11.5" customWidth="1" style="6" min="10" max="10"/>
-    <col width="33.33203125" bestFit="1" customWidth="1" style="6" min="11" max="11"/>
-    <col width="51" customWidth="1" style="6" min="12" max="12"/>
-    <col width="9.1640625" customWidth="1" style="8" min="13" max="16384"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="9" width="7.83203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" style="9" width="7.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="9" width="8.1640625"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" style="9" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="9" width="8.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="8" style="9" width="7.83203125"/>
+    <col customWidth="1" max="10" min="10" style="6" width="11.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="6" width="33.33203125"/>
+    <col customWidth="1" max="12" min="12" style="6" width="51"/>
+    <col customWidth="1" max="16384" min="13" style="8" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60" customHeight="1">
+    <row customHeight="1" ht="60" r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
           <t>MAC I / CL</t>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="2">
       <c r="D2" s="4" t="n"/>
       <c r="G2" s="5" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -1983,7 +1983,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="5">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
@@ -2093,7 +2093,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2179,7 +2179,7 @@
         </is>
       </c>
     </row>
-    <row r="8" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="8">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="9">
       <c r="A9" s="5" t="n"/>
       <c r="B9" s="5" t="n"/>
       <c r="C9" s="5" t="n"/>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
     </row>
-    <row r="10" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="11">
       <c r="A11" s="5" t="n"/>
       <c r="B11" s="5" t="n"/>
       <c r="C11" s="5" t="n"/>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
     </row>
-    <row r="12" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="13">
       <c r="A13" s="5" t="n"/>
       <c r="B13" s="5" t="n"/>
       <c r="C13" s="5" t="n"/>
@@ -2461,7 +2461,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2504,7 +2504,7 @@
         </is>
       </c>
     </row>
-    <row r="15" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="15">
       <c r="A15" s="5" t="n"/>
       <c r="B15" s="5" t="n"/>
       <c r="C15" s="5" t="n"/>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
     </row>
-    <row r="16" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
     </row>
-    <row r="17" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="17">
       <c r="A17" s="5" t="n"/>
       <c r="B17" s="5" t="n"/>
       <c r="C17" s="5" t="n"/>
@@ -2645,7 +2645,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="19">
       <c r="A19" s="5" t="n"/>
       <c r="B19" s="5" t="n"/>
       <c r="C19" s="5" t="n"/>
@@ -2743,7 +2743,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="20">
       <c r="A20" s="5" t="n"/>
       <c r="B20" s="5" t="n"/>
       <c r="C20" s="5" t="n"/>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="22">
       <c r="A22" s="5" t="n"/>
       <c r="B22" s="5" t="n"/>
       <c r="C22" s="5" t="n"/>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -2994,7 +2994,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
     </row>
-    <row r="27" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
     </row>
-    <row r="28" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
     </row>
-    <row r="29" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="29">
       <c r="A29" s="5" t="n"/>
       <c r="B29" s="5" t="n"/>
       <c r="C29" s="5" t="n"/>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
     </row>
-    <row r="30" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
     </row>
-    <row r="31" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="31">
       <c r="A31" s="5" t="n"/>
       <c r="B31" s="5" t="n"/>
       <c r="C31" s="5" t="n"/>
@@ -3403,7 +3403,7 @@
         </is>
       </c>
     </row>
-    <row r="32" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
     </row>
-    <row r="33" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
     </row>
-    <row r="34" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3592,7 +3592,7 @@
         </is>
       </c>
     </row>
-    <row r="35" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
     </row>
-    <row r="36" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
     </row>
-    <row r="37" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3793,7 +3793,7 @@
         </is>
       </c>
     </row>
-    <row r="38" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3860,7 +3860,7 @@
         </is>
       </c>
     </row>
-    <row r="39" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
     </row>
-    <row r="40" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -3994,7 +3994,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4061,7 +4061,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4305,7 +4305,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
     </row>
-    <row r="47" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4439,7 +4439,7 @@
         </is>
       </c>
     </row>
-    <row r="48" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4506,7 +4506,7 @@
         </is>
       </c>
     </row>
-    <row r="49" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
     </row>
-    <row r="50" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4625,7 +4625,7 @@
         </is>
       </c>
     </row>
-    <row r="51" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="51">
       <c r="A51" s="5" t="n"/>
       <c r="B51" s="5" t="n"/>
       <c r="C51" s="5" t="inlineStr">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
     </row>
-    <row r="52" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="52">
       <c r="A52" s="5" t="n"/>
       <c r="B52" s="5" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
     </row>
-    <row r="53" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
     </row>
-    <row r="54" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="54">
       <c r="A54" s="5" t="n"/>
       <c r="B54" s="5" t="n"/>
       <c r="C54" s="5" t="n"/>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
     </row>
-    <row r="55" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -4917,7 +4917,7 @@
         </is>
       </c>
     </row>
-    <row r="57" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="57">
       <c r="A57" s="5" t="n"/>
       <c r="B57" s="5" t="n"/>
       <c r="C57" s="5" t="inlineStr">
@@ -4960,7 +4960,7 @@
         </is>
       </c>
     </row>
-    <row r="58" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="58">
       <c r="A58" s="5" t="n"/>
       <c r="B58" s="5" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
     </row>
-    <row r="59" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
     </row>
-    <row r="60" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
     </row>
-    <row r="61" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="61">
       <c r="B61" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5165,7 +5165,7 @@
         </is>
       </c>
     </row>
-    <row r="62" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5220,7 +5220,7 @@
         </is>
       </c>
     </row>
-    <row r="63" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5275,7 +5275,7 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
     </row>
-    <row r="65" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5397,7 +5397,7 @@
         </is>
       </c>
     </row>
-    <row r="66" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
     </row>
-    <row r="67" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="67">
       <c r="A67" s="5" t="n"/>
       <c r="B67" s="5" t="n"/>
       <c r="C67" s="5" t="inlineStr">
@@ -5495,7 +5495,7 @@
         </is>
       </c>
     </row>
-    <row r="68" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="68">
       <c r="A68" s="5" t="n"/>
       <c r="B68" s="5" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
     </row>
-    <row r="69" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
     </row>
-    <row r="70" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="70">
       <c r="A70" s="5" t="n"/>
       <c r="B70" s="5" t="n"/>
       <c r="C70" s="5" t="n"/>
@@ -5618,7 +5618,7 @@
         </is>
       </c>
     </row>
-    <row r="71" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5677,7 +5677,7 @@
         </is>
       </c>
     </row>
-    <row r="72" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="72">
       <c r="A72" s="5" t="n"/>
       <c r="B72" s="5" t="n"/>
       <c r="C72" s="5" t="n"/>
@@ -5716,7 +5716,7 @@
         </is>
       </c>
     </row>
-    <row r="73" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5775,7 +5775,7 @@
         </is>
       </c>
     </row>
-    <row r="74" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5817,7 +5817,7 @@
         </is>
       </c>
     </row>
-    <row r="75" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="75">
       <c r="A75" s="5" t="n"/>
       <c r="B75" s="5" t="inlineStr">
         <is>
@@ -5859,7 +5859,7 @@
         </is>
       </c>
     </row>
-    <row r="76" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5902,7 +5902,7 @@
         </is>
       </c>
     </row>
-    <row r="77" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -5945,7 +5945,7 @@
         </is>
       </c>
     </row>
-    <row r="78" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="78">
       <c r="A78" s="5" t="n"/>
       <c r="B78" s="5" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
         </is>
       </c>
     </row>
-    <row r="79" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6029,7 +6029,7 @@
         </is>
       </c>
     </row>
-    <row r="80" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6082,7 +6082,7 @@
         </is>
       </c>
     </row>
-    <row r="81" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6136,7 +6136,7 @@
         </is>
       </c>
     </row>
-    <row r="82" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6189,7 +6189,7 @@
         </is>
       </c>
     </row>
-    <row r="83" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
     </row>
-    <row r="84" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6298,7 +6298,7 @@
         </is>
       </c>
     </row>
-    <row r="85" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="85">
       <c r="A85" s="5" t="n"/>
       <c r="B85" s="5" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         </is>
       </c>
     </row>
-    <row r="86" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
     </row>
-    <row r="87" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="87">
       <c r="A87" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6451,7 +6451,7 @@
         </is>
       </c>
     </row>
-    <row r="88" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="88">
       <c r="A88" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6506,7 +6506,7 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="89">
       <c r="A89" s="5" t="n"/>
       <c r="B89" s="5" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
     </row>
-    <row r="90" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6600,7 +6600,7 @@
         </is>
       </c>
     </row>
-    <row r="91" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="91">
       <c r="A91" s="5" t="n"/>
       <c r="B91" s="5" t="n"/>
       <c r="C91" s="5" t="n"/>
@@ -6643,7 +6643,7 @@
         </is>
       </c>
     </row>
-    <row r="92" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="92">
       <c r="A92" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
     </row>
-    <row r="93" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="93">
       <c r="A93" s="9" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
     </row>
-    <row r="94" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="94">
       <c r="A94" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6795,7 +6795,7 @@
         </is>
       </c>
     </row>
-    <row r="95" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="95">
       <c r="A95" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6862,7 +6862,7 @@
         </is>
       </c>
     </row>
-    <row r="96" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="96">
       <c r="A96" s="5" t="n"/>
       <c r="B96" s="5" t="n"/>
       <c r="C96" s="5" t="n"/>
@@ -6905,7 +6905,7 @@
         </is>
       </c>
     </row>
-    <row r="97" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="97">
       <c r="A97" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -6960,7 +6960,7 @@
         </is>
       </c>
     </row>
-    <row r="98" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="98">
       <c r="A98" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7014,7 +7014,7 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7081,7 +7081,7 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="100">
       <c r="A100" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
     </row>
-    <row r="101" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="101">
       <c r="A101" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7215,7 +7215,7 @@
         </is>
       </c>
     </row>
-    <row r="102" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="102">
       <c r="A102" s="5" t="n"/>
       <c r="B102" s="5" t="n"/>
       <c r="C102" s="5" t="n"/>
@@ -7258,7 +7258,7 @@
         </is>
       </c>
     </row>
-    <row r="103" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="103">
       <c r="A103" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7313,7 +7313,7 @@
         </is>
       </c>
     </row>
-    <row r="104" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="104">
       <c r="A104" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
     </row>
-    <row r="105" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="105">
       <c r="A105" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
     </row>
-    <row r="106" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="106">
       <c r="A106" s="5" t="n"/>
       <c r="B106" s="5" t="n"/>
       <c r="C106" s="5" t="n"/>
@@ -7470,7 +7470,7 @@
         </is>
       </c>
     </row>
-    <row r="107" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="107">
       <c r="A107" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7525,7 +7525,7 @@
         </is>
       </c>
     </row>
-    <row r="108" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="108">
       <c r="A108" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7592,7 +7592,7 @@
         </is>
       </c>
     </row>
-    <row r="109" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="109">
       <c r="A109" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7659,7 +7659,7 @@
         </is>
       </c>
     </row>
-    <row r="110" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="110">
       <c r="A110" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="111">
       <c r="A111" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7793,7 +7793,7 @@
         </is>
       </c>
     </row>
-    <row r="112" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="112">
       <c r="A112" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7860,7 +7860,7 @@
         </is>
       </c>
     </row>
-    <row r="113" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="113">
       <c r="A113" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7915,7 +7915,7 @@
         </is>
       </c>
     </row>
-    <row r="114" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="114">
       <c r="A114" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
     </row>
-    <row r="115" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="115">
       <c r="A115" s="5" t="n"/>
       <c r="B115" s="5" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         </is>
       </c>
     </row>
-    <row r="116" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="116">
       <c r="A116" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8056,7 +8056,7 @@
         </is>
       </c>
     </row>
-    <row r="117" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="117">
       <c r="A117" s="5" t="n"/>
       <c r="B117" s="5" t="n"/>
       <c r="C117" s="5" t="n"/>
@@ -8095,7 +8095,7 @@
         </is>
       </c>
     </row>
-    <row r="118" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="118">
       <c r="A118" s="5" t="n"/>
       <c r="B118" s="5" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         </is>
       </c>
     </row>
-    <row r="119" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="119">
       <c r="A119" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8185,7 +8185,7 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="120">
       <c r="A120" s="5" t="n"/>
       <c r="B120" s="5" t="n"/>
       <c r="C120" s="5" t="n"/>
@@ -8228,7 +8228,7 @@
         </is>
       </c>
     </row>
-    <row r="121" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="121">
       <c r="A121" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8282,7 +8282,7 @@
         </is>
       </c>
     </row>
-    <row r="122" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="122">
       <c r="A122" s="5" t="n"/>
       <c r="B122" s="5" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         </is>
       </c>
     </row>
-    <row r="123" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="123">
       <c r="A123" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8367,7 +8367,7 @@
         </is>
       </c>
     </row>
-    <row r="124" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="124">
       <c r="A124" s="5" t="n"/>
       <c r="B124" s="5" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         </is>
       </c>
     </row>
-    <row r="125" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="125">
       <c r="A125" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8452,7 +8452,7 @@
         </is>
       </c>
     </row>
-    <row r="126" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="126">
       <c r="A126" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8494,7 +8494,7 @@
         </is>
       </c>
     </row>
-    <row r="127" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="127">
       <c r="A127" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8549,7 +8549,7 @@
         </is>
       </c>
     </row>
-    <row r="128" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="128">
       <c r="A128" s="5" t="n"/>
       <c r="B128" s="5" t="n"/>
       <c r="C128" s="5" t="n"/>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
     </row>
-    <row r="129" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="129">
       <c r="A129" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8647,7 +8647,7 @@
         </is>
       </c>
     </row>
-    <row r="130" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="130">
       <c r="A130" s="5" t="n"/>
       <c r="B130" s="5" t="n"/>
       <c r="C130" s="5" t="n"/>
@@ -8690,7 +8690,7 @@
         </is>
       </c>
     </row>
-    <row r="131" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="131">
       <c r="A131" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8745,7 +8745,7 @@
         </is>
       </c>
     </row>
-    <row r="132" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="132">
       <c r="A132" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8812,7 +8812,7 @@
         </is>
       </c>
     </row>
-    <row r="133" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="133">
       <c r="A133" s="5" t="n"/>
       <c r="C133" s="5" t="n"/>
       <c r="D133" s="5" t="n"/>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
     </row>
-    <row r="134" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="134">
       <c r="A134" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -8909,7 +8909,7 @@
         </is>
       </c>
     </row>
-    <row r="135" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="135">
       <c r="C135" s="5" t="n"/>
       <c r="D135" s="5" t="n"/>
       <c r="E135" s="5" t="n"/>
@@ -8950,7 +8950,7 @@
         </is>
       </c>
     </row>
-    <row r="136" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="136">
       <c r="A136" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9005,7 +9005,7 @@
         </is>
       </c>
     </row>
-    <row r="137" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="137">
       <c r="A137" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9072,7 +9072,7 @@
         </is>
       </c>
     </row>
-    <row r="138" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="138">
       <c r="B138" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9113,7 +9113,7 @@
         </is>
       </c>
     </row>
-    <row r="139" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="139">
       <c r="A139" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9155,7 +9155,7 @@
         </is>
       </c>
     </row>
-    <row r="140" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="140">
       <c r="A140" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9210,7 +9210,7 @@
         </is>
       </c>
     </row>
-    <row r="141" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="141">
       <c r="A141" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9277,7 +9277,7 @@
         </is>
       </c>
     </row>
-    <row r="142" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="142">
       <c r="A142" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9331,7 +9331,7 @@
         </is>
       </c>
     </row>
-    <row r="143" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="143">
       <c r="A143" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9385,7 +9385,7 @@
         </is>
       </c>
     </row>
-    <row r="144" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="144">
       <c r="D144" s="5" t="n"/>
       <c r="E144" s="5" t="n"/>
       <c r="F144" s="5" t="n"/>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
     </row>
-    <row r="145" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="145">
       <c r="A145" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9480,7 +9480,7 @@
         </is>
       </c>
     </row>
-    <row r="146" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="146">
       <c r="A146" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9547,7 +9547,7 @@
         </is>
       </c>
     </row>
-    <row r="147" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="147">
       <c r="A147" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9601,7 +9601,7 @@
         </is>
       </c>
     </row>
-    <row r="148" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="148">
       <c r="A148" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9668,7 +9668,7 @@
         </is>
       </c>
     </row>
-    <row r="149" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="149">
       <c r="B149" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9707,7 +9707,7 @@
         </is>
       </c>
     </row>
-    <row r="150" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="150">
       <c r="A150" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
     </row>
-    <row r="151" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="151">
       <c r="B151" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9799,7 +9799,7 @@
         </is>
       </c>
     </row>
-    <row r="152" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="152">
       <c r="A152" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9838,7 +9838,7 @@
         </is>
       </c>
     </row>
-    <row r="153" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="153">
       <c r="A153" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9905,7 +9905,7 @@
         </is>
       </c>
     </row>
-    <row r="154" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="154">
       <c r="A154" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -9972,7 +9972,7 @@
         </is>
       </c>
     </row>
-    <row r="155" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="155">
       <c r="A155" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10024,7 +10024,7 @@
         </is>
       </c>
     </row>
-    <row r="156" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="156">
       <c r="D156" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10076,7 +10076,7 @@
         </is>
       </c>
     </row>
-    <row r="157" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="157">
       <c r="A157" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10114,7 +10114,7 @@
         </is>
       </c>
     </row>
-    <row r="158" ht="14" customHeight="1">
+    <row customHeight="1" ht="14" r="158">
       <c r="A158" s="5" t="inlineStr">
         <is>
           <t>Y</t>
@@ -10220,7 +10220,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -10230,36 +10230,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FU162"/>
+  <dimension ref="A1:FU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
-    <col width="1.5" customWidth="1" style="36" min="1" max="1"/>
-    <col width="34.5" customWidth="1" style="36" min="2" max="2"/>
-    <col width="18.5" customWidth="1" style="36" min="3" max="5"/>
-    <col width="15.5" customWidth="1" style="36" min="6" max="6"/>
-    <col width="25.5" customWidth="1" style="117" min="7" max="7"/>
-    <col width="27.1640625" customWidth="1" style="36" min="8" max="9"/>
-    <col width="21.5" customWidth="1" style="36" min="10" max="10"/>
-    <col width="24.6640625" customWidth="1" style="36" min="11" max="11"/>
-    <col width="25.1640625" customWidth="1" style="36" min="12" max="12"/>
-    <col width="17.1640625" customWidth="1" style="36" min="13" max="13"/>
-    <col width="16.1640625" customWidth="1" style="36" min="14" max="14"/>
-    <col width="19" customWidth="1" style="36" min="15" max="16"/>
-    <col width="19.83203125" customWidth="1" style="36" min="17" max="18"/>
-    <col width="27.5" customWidth="1" style="36" min="19" max="19"/>
-    <col width="19.83203125" customWidth="1" style="36" min="20" max="21"/>
-    <col width="29.5" customWidth="1" style="36" min="22" max="22"/>
-    <col width="19.83203125" customWidth="1" style="36" min="23" max="23"/>
-    <col width="29.5" customWidth="1" style="36" min="24" max="25"/>
-    <col width="9.1640625" customWidth="1" style="36" min="26" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="36" width="1.5"/>
+    <col customWidth="1" max="2" min="2" style="36" width="34.5"/>
+    <col customWidth="1" max="5" min="3" style="36" width="18.5"/>
+    <col customWidth="1" max="6" min="6" style="36" width="15.5"/>
+    <col customWidth="1" max="7" min="7" style="117" width="25.5"/>
+    <col customWidth="1" max="9" min="8" style="36" width="27.1640625"/>
+    <col customWidth="1" max="10" min="10" style="36" width="21.5"/>
+    <col customWidth="1" max="11" min="11" style="36" width="24.6640625"/>
+    <col customWidth="1" max="12" min="12" style="36" width="25.1640625"/>
+    <col customWidth="1" max="13" min="13" style="36" width="17.1640625"/>
+    <col customWidth="1" max="14" min="14" style="36" width="16.1640625"/>
+    <col customWidth="1" max="16" min="15" style="36" width="19"/>
+    <col customWidth="1" max="18" min="17" style="36" width="19.83203125"/>
+    <col customWidth="1" max="19" min="19" style="36" width="27.5"/>
+    <col customWidth="1" max="21" min="20" style="36" width="19.83203125"/>
+    <col customWidth="1" max="22" min="22" style="36" width="29.5"/>
+    <col customWidth="1" max="23" min="23" style="36" width="19.83203125"/>
+    <col customWidth="1" max="25" min="24" style="36" width="29.5"/>
+    <col customWidth="1" max="16384" min="26" style="36" width="9.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customFormat="1" customHeight="1" s="20">
+    <row customFormat="1" customHeight="1" ht="26.25" r="1" s="20">
       <c r="A1" s="87" t="inlineStr">
         <is>
           <t>***** UNCLASSIFIED//FOR OFFICIAL USE ONLY *****</t>
@@ -10291,7 +10291,7 @@
       <c r="Y1" s="118" t="n"/>
       <c r="Z1" s="44" t="n"/>
     </row>
-    <row r="2" customFormat="1" s="20">
+    <row customFormat="1" r="2" s="20">
       <c r="A2" s="77" t="inlineStr">
         <is>
           <t>Date Exported:</t>
@@ -10340,7 +10340,7 @@
       <c r="X2" s="28" t="n"/>
       <c r="Y2" s="29" t="n"/>
     </row>
-    <row r="3" customFormat="1" s="20">
+    <row customFormat="1" r="3" s="20">
       <c r="A3" s="77" t="inlineStr">
         <is>
           <t>Exported By:</t>
@@ -10375,7 +10375,7 @@
       <c r="X3" s="26" t="n"/>
       <c r="Y3" s="30" t="n"/>
     </row>
-    <row r="4" customFormat="1" s="20">
+    <row customFormat="1" r="4" s="20">
       <c r="A4" s="77" t="inlineStr">
         <is>
           <t>DoD Component:</t>
@@ -10418,7 +10418,7 @@
       <c r="X4" s="26" t="n"/>
       <c r="Y4" s="30" t="n"/>
     </row>
-    <row r="5" ht="17" customFormat="1" customHeight="1" s="20">
+    <row customFormat="1" customHeight="1" ht="17" r="5" s="20">
       <c r="A5" s="77" t="inlineStr">
         <is>
           <t>System / Project Name:</t>
@@ -10467,7 +10467,7 @@
       <c r="X5" s="26" t="n"/>
       <c r="Y5" s="30" t="n"/>
     </row>
-    <row r="6" ht="17" customFormat="1" customHeight="1" s="20">
+    <row customFormat="1" customHeight="1" ht="17" r="6" s="20">
       <c r="A6" s="77" t="inlineStr">
         <is>
           <t>DoD IT Registration No:</t>
@@ -10508,7 +10508,7 @@
       <c r="X6" s="27" t="n"/>
       <c r="Y6" s="31" t="n"/>
     </row>
-    <row r="7" ht="68" customFormat="1" customHeight="1" s="22">
+    <row customFormat="1" customHeight="1" ht="68" r="7" s="22">
       <c r="A7" s="76" t="inlineStr">
         <is>
           <t>Control Vulnerability Description</t>
@@ -10631,18 +10631,18 @@
         </is>
       </c>
     </row>
-    <row r="8" customFormat="1" s="20">
+    <row customFormat="1" r="8" s="20">
       <c r="A8" s="47" t="n"/>
       <c r="B8" s="47" t="inlineStr">
         <is>
-          <t>rbash in Bash before 4.4-beta2 did not prevent the shell user from modifying BASH_CMDS, thus allowing the user to execute any command with the permissions of the shell.</t>
+          <t>The POWER9 backend in GNU Compiler Collection (GCC) before version 10 could optimize multiple calls of the __builtin_darn intrinsic into a single call, thus reducing the entropy of the random number generator. This occurred because a volatile operation was not specified. For example, within a single execution of a program, the output of every __builtin_darn() call may be the same.</t>
         </is>
       </c>
       <c r="C8" s="49" t="n"/>
       <c r="D8" s="49" t="n"/>
       <c r="E8" s="54" t="inlineStr">
         <is>
-          <t>CVE-2019-9924</t>
+          <t>CVE-2019-15847</t>
         </is>
       </c>
       <c r="F8" s="128" t="n"/>
@@ -10658,12 +10658,12 @@
       <c r="L8" s="49" t="n"/>
       <c r="M8" s="49" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>high</t>
         </is>
       </c>
       <c r="N8" s="50" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O8" s="49" t="n"/>
@@ -10677,23 +10677,23 @@
       <c r="W8" s="48" t="n"/>
       <c r="X8" s="48" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9924</t>
+          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2019-15847</t>
         </is>
       </c>
       <c r="Y8" s="36" t="n"/>
     </row>
-    <row r="9" customFormat="1" s="20">
+    <row customFormat="1" r="9" s="20">
       <c r="A9" s="25" t="n"/>
       <c r="B9" s="47" t="inlineStr">
         <is>
-          <t>An issue was discovered in disable_priv_mode in shell.c in GNU Bash through 5.0 patch 11. By default, if Bash is run with its effective UID not equal to its real UID, it will drop privileges by setting its effective UID to its real UID. However, it does so incorrectly. On Linux and other systems that support \"saved UID\" functionality, the saved UID is not dropped. An attacker with command execution in the shell can use \"enable -f\" for runtime loading of a new builtin, which can be a shared object that calls setuid() and therefore regains privileges. However, binaries running with an effective UID of 0 are unaffected.</t>
+          <t>The uglify-js package before 2.4.24 for Node.js does not properly account for non-boolean values when rewriting boolean expressions, which might allow attackers to bypass security mechanisms or possibly have unspecified other impact by leveraging improperly rewritten Javascript.</t>
         </is>
       </c>
       <c r="C9" s="49" t="n"/>
       <c r="D9" s="49" t="n"/>
       <c r="E9" s="47" t="inlineStr">
         <is>
-          <t>CVE-2019-18276</t>
+          <t>CVE-2015-8857</t>
         </is>
       </c>
       <c r="F9" s="128" t="n"/>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="N9" s="50" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O9" s="49" t="n"/>
@@ -10728,23 +10728,23 @@
       <c r="W9" s="48" t="n"/>
       <c r="X9" s="48" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-18276</t>
+          <t>https://www.npmjs.com/advisories/39</t>
         </is>
       </c>
       <c r="Y9" s="36" t="n"/>
     </row>
-    <row r="10" customFormat="1" s="20">
+    <row customFormat="1" r="10" s="20">
       <c r="A10" s="25" t="n"/>
       <c r="B10" s="47" t="inlineStr">
         <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
+          <t>The uglify-js package before 2.6.0 for Node.js allows attackers to cause a denial of service (CPU consumption) via crafted input in a parse call, aka a \"regular expression denial of service (ReDoS).\"</t>
         </is>
       </c>
       <c r="C10" s="49" t="n"/>
       <c r="D10" s="49" t="n"/>
       <c r="E10" s="47" t="inlineStr">
         <is>
-          <t>CVE-2018-12404</t>
+          <t>CVE-2015-8858</t>
         </is>
       </c>
       <c r="F10" s="128" t="n"/>
@@ -10760,12 +10760,12 @@
       <c r="L10" s="49" t="n"/>
       <c r="M10" s="49" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>low</t>
         </is>
       </c>
       <c r="N10" s="49" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O10" s="49" t="n"/>
@@ -10779,23 +10779,23 @@
       <c r="W10" s="48" t="n"/>
       <c r="X10" s="48" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
+          <t>https://www.npmjs.com/advisories/48</t>
         </is>
       </c>
       <c r="Y10" s="36" t="n"/>
     </row>
-    <row r="11" customFormat="1" s="20">
+    <row customFormat="1" r="11" s="20">
       <c r="A11" s="25" t="n"/>
       <c r="B11" s="47" t="inlineStr">
         <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
+          <t>Versions of the npm CLI prior to 6.14.6 are vulnerable to an information exposure vulnerability through log files. The CLI supports URLs like \"&lt;protocol&gt;://[&lt;user&gt;[:&lt;password&gt;]@]&lt;hostname&gt;[:&lt;port&gt;][:][/]&lt;path&gt;\". The password value is not redacted and is printed to stdout and also to any generated log files.</t>
         </is>
       </c>
       <c r="C11" s="47" t="n"/>
       <c r="D11" s="47" t="n"/>
       <c r="E11" s="54" t="inlineStr">
         <is>
-          <t>CVE-2018-0495</t>
+          <t>CVE-2020-15095</t>
         </is>
       </c>
       <c r="F11" s="128" t="n"/>
@@ -10811,12 +10811,12 @@
       <c r="L11" s="49" t="n"/>
       <c r="M11" s="47" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>low</t>
         </is>
       </c>
       <c r="N11" s="50" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O11" s="49" t="n"/>
@@ -10830,23 +10830,23 @@
       <c r="W11" s="52" t="n"/>
       <c r="X11" s="48" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
+          <t>https://www.npmjs.com/advisories/1543</t>
         </is>
       </c>
       <c r="Y11" s="36" t="n"/>
     </row>
-    <row r="12" customFormat="1" s="20">
+    <row customFormat="1" r="12" s="20">
       <c r="A12" s="25" t="n"/>
       <c r="B12" s="47" t="inlineStr">
         <is>
-          <t>When encrypting with a block cipher, if a call to NSC_EncryptUpdate was made with data smaller than the block size, a small out of bounds write could occur. This could have caused heap corruption and a potentially exploitable crash. This vulnerability affects Thunderbird &lt; 68.3, Firefox ESR &lt; 68.3, and Firefox &lt; 71.</t>
+          <t xml:space="preserve">Affected versions of `minimist` are vulnerable to prototype pollution. Arguments are not properly sanitized, allowing an attacker to modify the prototype of `Object`, causing the addition or modification of an existing property that will exist on all objects.   Parsing the argument `--__proto__.y=Polluted` adds a `y` property with value `Polluted` to all objects. The argument `--__proto__=Polluted` raises and uncaught error and crashes the application.   This is exploitable if attackers have control over the arguments being passed to `minimist`. </t>
         </is>
       </c>
       <c r="C12" s="47" t="n"/>
       <c r="D12" s="47" t="n"/>
       <c r="E12" s="47" t="inlineStr">
         <is>
-          <t>CVE-2019-11745</t>
+          <t>NODE-SECURITY-1179</t>
         </is>
       </c>
       <c r="F12" s="128" t="n"/>
@@ -10862,12 +10862,12 @@
       <c r="L12" s="49" t="n"/>
       <c r="M12" s="47" t="inlineStr">
         <is>
-          <t>important</t>
+          <t>low</t>
         </is>
       </c>
       <c r="N12" s="50" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O12" s="49" t="n"/>
@@ -10881,23 +10881,23 @@
       <c r="W12" s="48" t="n"/>
       <c r="X12" s="48" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11745</t>
+          <t>https://www.npmjs.com/advisories/1179</t>
         </is>
       </c>
       <c r="Y12" s="36" t="n"/>
     </row>
-    <row r="13" customFormat="1" s="20">
+    <row customFormat="1" r="13" s="20">
       <c r="A13" s="25" t="n"/>
       <c r="B13" s="47" t="inlineStr">
         <is>
-          <t>Empty or malformed p256-ECDH public keys may trigger a segmentation fault due values being improperly sanitized before being copied into memory and used. This vulnerability affects Firefox ESR &lt; 60.8, Firefox &lt; 68, and Thunderbird &lt; 60.8.</t>
+          <t>Version of `clean-css` prior to 4.1.11 are vulnerable to Regular Expression Denial of Service (ReDoS). Untrusted input may cause catastrophic backtracking while matching regular expressions. This can cause the application to be unresponsive leading to Denial of Service.</t>
         </is>
       </c>
       <c r="C13" s="47" t="n"/>
       <c r="D13" s="47" t="n"/>
       <c r="E13" s="47" t="inlineStr">
         <is>
-          <t>CVE-2019-11729</t>
+          <t>NODE-SECURITY-785</t>
         </is>
       </c>
       <c r="F13" s="47" t="n"/>
@@ -10913,12 +10913,12 @@
       <c r="L13" s="47" t="n"/>
       <c r="M13" s="47" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>low</t>
         </is>
       </c>
       <c r="N13" s="47" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O13" s="47" t="n"/>
@@ -10932,7 +10932,7 @@
       <c r="W13" s="39" t="n"/>
       <c r="X13" s="36" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11729</t>
+          <t>https://www.npmjs.com/advisories/785</t>
         </is>
       </c>
       <c r="Y13" s="36" t="n"/>
@@ -11089,39 +11089,59 @@
       <c r="FT13" s="20" t="n"/>
       <c r="FU13" s="20" t="n"/>
     </row>
-    <row r="14" customFormat="1" s="20">
+    <row customFormat="1" r="14" s="20">
       <c r="A14" s="25" t="n"/>
       <c r="B14" s="47" t="inlineStr">
         <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
+          <t>Versions of `constantinople` prior to 3.1.1 are vulnerable to a sandbox bypass which can lead to arbitrary code execution.</t>
         </is>
       </c>
       <c r="C14" s="47" t="n"/>
       <c r="D14" s="47" t="n"/>
       <c r="E14" s="47" t="inlineStr">
         <is>
-          <t>CVE-2018-12404</t>
+          <t>NODE-SECURITY-568</t>
         </is>
       </c>
       <c r="F14" s="47" t="n"/>
-      <c r="G14" s="129" t="n"/>
-      <c r="H14" s="47" t="n"/>
-      <c r="I14" s="47" t="n"/>
+      <c r="G14" s="129" t="inlineStr">
+        <is>
+          <t>10/2/2020</t>
+        </is>
+      </c>
+      <c r="H14" s="47" t="inlineStr">
+        <is>
+          <t>stuf</t>
+        </is>
+      </c>
+      <c r="I14" s="47" t="inlineStr">
+        <is>
+          <t>Researched CVE</t>
+        </is>
+      </c>
       <c r="J14" s="47" t="inlineStr">
         <is>
           <t>Scanned by Prisma Cloud Compute</t>
         </is>
       </c>
-      <c r="K14" s="47" t="n"/>
-      <c r="L14" s="47" t="n"/>
+      <c r="K14" s="47" t="inlineStr">
+        <is>
+          <t>Waiting on Developer to update image base</t>
+        </is>
+      </c>
+      <c r="L14" s="47" t="inlineStr">
+        <is>
+          <t>Re assessing image base</t>
+        </is>
+      </c>
       <c r="M14" s="47" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>critical</t>
         </is>
       </c>
       <c r="N14" s="47" t="inlineStr">
         <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
+          <t>docker.io/jshark2010/node-test-pipeline-example:11</t>
         </is>
       </c>
       <c r="O14" s="47" t="n"/>
@@ -11135,7 +11155,7 @@
       <c r="W14" s="39" t="n"/>
       <c r="X14" s="36" t="inlineStr">
         <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
+          <t>https://www.npmjs.com/advisories/568</t>
         </is>
       </c>
       <c r="Y14" s="36" t="n"/>
@@ -11292,41 +11312,21 @@
       <c r="FT14" s="20" t="n"/>
       <c r="FU14" s="20" t="n"/>
     </row>
-    <row r="15" customFormat="1" s="20">
+    <row customFormat="1" r="15" s="20">
       <c r="A15" s="25" t="n"/>
-      <c r="B15" s="47" t="inlineStr">
-        <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
-        </is>
-      </c>
+      <c r="B15" s="47" t="n"/>
       <c r="C15" s="47" t="n"/>
       <c r="D15" s="47" t="n"/>
-      <c r="E15" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="E15" s="47" t="n"/>
       <c r="F15" s="47" t="n"/>
       <c r="G15" s="129" t="n"/>
       <c r="H15" s="47" t="n"/>
       <c r="I15" s="47" t="n"/>
-      <c r="J15" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J15" s="47" t="n"/>
       <c r="K15" s="47" t="n"/>
       <c r="L15" s="47" t="n"/>
-      <c r="M15" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N15" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M15" s="47" t="n"/>
+      <c r="N15" s="47" t="n"/>
       <c r="O15" s="47" t="n"/>
       <c r="P15" s="25" t="n"/>
       <c r="Q15" s="25" t="n"/>
@@ -11336,11 +11336,7 @@
       <c r="U15" s="25" t="n"/>
       <c r="V15" s="25" t="n"/>
       <c r="W15" s="38" t="n"/>
-      <c r="X15" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="X15" s="36" t="n"/>
       <c r="Y15" s="36" t="n"/>
       <c r="Z15" s="20" t="n"/>
       <c r="AA15" s="20" t="n"/>
@@ -11495,41 +11491,21 @@
       <c r="FT15" s="20" t="n"/>
       <c r="FU15" s="20" t="n"/>
     </row>
-    <row r="16" customFormat="1" s="20">
+    <row customFormat="1" r="16" s="20">
       <c r="A16" s="25" t="n"/>
-      <c r="B16" s="47" t="inlineStr">
-        <is>
-          <t>In OpenSSH 7.9, due to accepting and displaying arbitrary stderr output from the server, a malicious server (or Man-in-The-Middle attacker) can manipulate the client output, for example to use ANSI control codes to hide additional files being transferred.</t>
-        </is>
-      </c>
+      <c r="B16" s="47" t="n"/>
       <c r="C16" s="47" t="n"/>
       <c r="D16" s="47" t="n"/>
-      <c r="E16" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-6110</t>
-        </is>
-      </c>
+      <c r="E16" s="47" t="n"/>
       <c r="F16" s="47" t="n"/>
       <c r="G16" s="129" t="n"/>
       <c r="H16" s="47" t="n"/>
       <c r="I16" s="47" t="n"/>
-      <c r="J16" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J16" s="47" t="n"/>
       <c r="K16" s="47" t="n"/>
       <c r="L16" s="47" t="n"/>
-      <c r="M16" s="47" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N16" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M16" s="47" t="n"/>
+      <c r="N16" s="47" t="n"/>
       <c r="O16" s="47" t="n"/>
       <c r="P16" s="25" t="n"/>
       <c r="Q16" s="25" t="n"/>
@@ -11539,11 +11515,7 @@
       <c r="U16" s="25" t="n"/>
       <c r="V16" s="25" t="n"/>
       <c r="W16" s="39" t="n"/>
-      <c r="X16" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-6110</t>
-        </is>
-      </c>
+      <c r="X16" s="36" t="n"/>
       <c r="Y16" s="36" t="n"/>
       <c r="Z16" s="20" t="n"/>
       <c r="AA16" s="20" t="n"/>
@@ -11698,41 +11670,21 @@
       <c r="FT16" s="20" t="n"/>
       <c r="FU16" s="20" t="n"/>
     </row>
-    <row r="17" customFormat="1" s="20">
+    <row customFormat="1" r="17" s="20">
       <c r="A17" s="25" t="n"/>
-      <c r="B17" s="47" t="inlineStr">
-        <is>
-          <t>An issue was discovered in OpenSSH 7.9. Due to missing character encoding in the progress display, a malicious server (or Man-in-The-Middle attacker) can employ crafted object names to manipulate the client output, e.g., by using ANSI control codes to hide additional files being transferred. This affects refresh_progress_meter() in progressmeter.c.</t>
-        </is>
-      </c>
+      <c r="B17" s="47" t="n"/>
       <c r="C17" s="47" t="n"/>
       <c r="D17" s="47" t="n"/>
-      <c r="E17" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-6109</t>
-        </is>
-      </c>
+      <c r="E17" s="47" t="n"/>
       <c r="F17" s="47" t="n"/>
       <c r="G17" s="129" t="n"/>
       <c r="H17" s="47" t="n"/>
       <c r="I17" s="47" t="n"/>
-      <c r="J17" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J17" s="47" t="n"/>
       <c r="K17" s="47" t="n"/>
       <c r="L17" s="47" t="n"/>
-      <c r="M17" s="47" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N17" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M17" s="47" t="n"/>
+      <c r="N17" s="47" t="n"/>
       <c r="O17" s="47" t="n"/>
       <c r="P17" s="25" t="n"/>
       <c r="Q17" s="25" t="n"/>
@@ -11742,11 +11694,7 @@
       <c r="U17" s="25" t="n"/>
       <c r="V17" s="25" t="n"/>
       <c r="W17" s="39" t="n"/>
-      <c r="X17" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-6109</t>
-        </is>
-      </c>
+      <c r="X17" s="36" t="n"/>
       <c r="Y17" s="36" t="n"/>
       <c r="Z17" s="20" t="n"/>
       <c r="AA17" s="20" t="n"/>
@@ -11901,41 +11849,21 @@
       <c r="FT17" s="20" t="n"/>
       <c r="FU17" s="20" t="n"/>
     </row>
-    <row r="18" customFormat="1" s="20">
+    <row customFormat="1" r="18" s="20">
       <c r="A18" s="25" t="n"/>
-      <c r="B18" s="47" t="inlineStr">
-        <is>
-          <t>The client side in OpenSSH 5.7 through 8.3 has an Observable Discrepancy leading to an information leak in the algorithm negotiation. This allows man-in-the-middle attackers to target initial connection attempts (where no host key for the server has been cached by the client).</t>
-        </is>
-      </c>
+      <c r="B18" s="47" t="n"/>
       <c r="C18" s="47" t="n"/>
       <c r="D18" s="47" t="n"/>
-      <c r="E18" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2020-14145</t>
-        </is>
-      </c>
+      <c r="E18" s="47" t="n"/>
       <c r="F18" s="47" t="n"/>
       <c r="G18" s="129" t="n"/>
       <c r="H18" s="47" t="n"/>
       <c r="I18" s="47" t="n"/>
-      <c r="J18" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J18" s="47" t="n"/>
       <c r="K18" s="47" t="n"/>
       <c r="L18" s="47" t="n"/>
-      <c r="M18" s="47" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N18" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M18" s="47" t="n"/>
+      <c r="N18" s="47" t="n"/>
       <c r="O18" s="47" t="n"/>
       <c r="P18" s="25" t="n"/>
       <c r="Q18" s="25" t="n"/>
@@ -11945,11 +11873,7 @@
       <c r="U18" s="25" t="n"/>
       <c r="V18" s="25" t="n"/>
       <c r="W18" s="25" t="n"/>
-      <c r="X18" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-14145</t>
-        </is>
-      </c>
+      <c r="X18" s="36" t="n"/>
       <c r="Y18" s="36" t="n"/>
       <c r="Z18" s="20" t="n"/>
       <c r="AA18" s="20" t="n"/>
@@ -12104,41 +12028,21 @@
       <c r="FT18" s="20" t="n"/>
       <c r="FU18" s="20" t="n"/>
     </row>
-    <row r="19" customFormat="1" s="20">
+    <row customFormat="1" r="19" s="20">
       <c r="A19" s="25" t="n"/>
-      <c r="B19" s="47" t="inlineStr">
-        <is>
-          <t>Affected versions of Git have a vulnerability whereby Git can be tricked into sending private credentials to a host controlled by an attacker. This bug is similar to CVE-2020-5260(GHSA-qm7j-c969-7j4q). The fix for that bug still left the door open for an exploit where _some_ credential is leaked (but the attacker cannot control which one). Git uses external \"credential helper\" programs to store and retrieve passwords or other credentials from secure storage provided by the operating system. Specially-crafted URLs that are considered illegal as of the recently published Git versions can cause Git to send a \"blank\" pattern to helpers, missing hostname and protocol fields. Many helpers will interpret this as matching _any_ URL, and will return some unspecified stored password, leaking the password to an attacker\'s server. The vulnerability can be triggered by feeding a malicious URL to `git clone`. However, the affected URLs look rather suspicious; the likely vector would be through systems which automatically clone URLs not visible to the user, such as Git submodules, or package systems built around Git. The root of the problem is in Git itself, which should not be feeding blank input to helpers. However, the ability to exploit the vulnerability in practice depends on which helpers are in use. Credential helpers which are known to trigger the vulnerability: - Git\'s \"store\" helper</t>
-        </is>
-      </c>
+      <c r="B19" s="47" t="n"/>
       <c r="C19" s="47" t="n"/>
       <c r="D19" s="47" t="n"/>
-      <c r="E19" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2020-11008</t>
-        </is>
-      </c>
+      <c r="E19" s="47" t="n"/>
       <c r="F19" s="47" t="n"/>
       <c r="G19" s="129" t="n"/>
       <c r="H19" s="47" t="n"/>
       <c r="I19" s="47" t="n"/>
-      <c r="J19" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J19" s="47" t="n"/>
       <c r="K19" s="47" t="n"/>
       <c r="L19" s="47" t="n"/>
-      <c r="M19" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N19" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M19" s="47" t="n"/>
+      <c r="N19" s="47" t="n"/>
       <c r="O19" s="47" t="n"/>
       <c r="P19" s="25" t="n"/>
       <c r="Q19" s="25" t="n"/>
@@ -12148,11 +12052,7 @@
       <c r="U19" s="25" t="n"/>
       <c r="V19" s="25" t="n"/>
       <c r="W19" s="25" t="n"/>
-      <c r="X19" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-11008</t>
-        </is>
-      </c>
+      <c r="X19" s="36" t="n"/>
       <c r="Y19" s="36" t="n"/>
       <c r="Z19" s="20" t="n"/>
       <c r="AA19" s="20" t="n"/>
@@ -12307,41 +12207,21 @@
       <c r="FT19" s="20" t="n"/>
       <c r="FU19" s="20" t="n"/>
     </row>
-    <row r="20" customFormat="1" s="20">
+    <row customFormat="1" r="20" s="20">
       <c r="A20" s="25" t="n"/>
-      <c r="B20" s="47" t="inlineStr">
-        <is>
-          <t>Heap buffer overflow in the TFTP protocol handler in cURL 7.19.4 to 7.65.3.</t>
-        </is>
-      </c>
+      <c r="B20" s="47" t="n"/>
       <c r="C20" s="47" t="n"/>
       <c r="D20" s="47" t="n"/>
-      <c r="E20" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-5482</t>
-        </is>
-      </c>
+      <c r="E20" s="47" t="n"/>
       <c r="F20" s="47" t="n"/>
       <c r="G20" s="129" t="n"/>
       <c r="H20" s="47" t="n"/>
       <c r="I20" s="47" t="n"/>
-      <c r="J20" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J20" s="47" t="n"/>
       <c r="K20" s="47" t="n"/>
       <c r="L20" s="47" t="n"/>
-      <c r="M20" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N20" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M20" s="47" t="n"/>
+      <c r="N20" s="47" t="n"/>
       <c r="O20" s="47" t="n"/>
       <c r="P20" s="25" t="n"/>
       <c r="Q20" s="25" t="n"/>
@@ -12351,11 +12231,7 @@
       <c r="U20" s="25" t="n"/>
       <c r="V20" s="25" t="n"/>
       <c r="W20" s="25" t="n"/>
-      <c r="X20" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-5482</t>
-        </is>
-      </c>
+      <c r="X20" s="36" t="n"/>
       <c r="Y20" s="36" t="n"/>
       <c r="Z20" s="20" t="n"/>
       <c r="AA20" s="20" t="n"/>
@@ -12510,41 +12386,21 @@
       <c r="FT20" s="20" t="n"/>
       <c r="FU20" s="20" t="n"/>
     </row>
-    <row r="21" customFormat="1" s="20">
+    <row customFormat="1" r="21" s="20">
       <c r="A21" s="25" t="n"/>
-      <c r="B21" s="47" t="inlineStr">
-        <is>
-          <t>It was discovered that the gnome-shell lock screen since version 3.15.91 did not properly restrict all contextual actions. An attacker with physical access to a locked workstation could invoke certain keyboard shortcuts, and potentially other actions.</t>
-        </is>
-      </c>
+      <c r="B21" s="47" t="n"/>
       <c r="C21" s="47" t="n"/>
       <c r="D21" s="47" t="n"/>
-      <c r="E21" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-3820</t>
-        </is>
-      </c>
+      <c r="E21" s="47" t="n"/>
       <c r="F21" s="47" t="n"/>
       <c r="G21" s="129" t="n"/>
       <c r="H21" s="47" t="n"/>
       <c r="I21" s="47" t="n"/>
-      <c r="J21" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J21" s="47" t="n"/>
       <c r="K21" s="47" t="n"/>
       <c r="L21" s="47" t="n"/>
-      <c r="M21" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N21" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M21" s="47" t="n"/>
+      <c r="N21" s="47" t="n"/>
       <c r="O21" s="47" t="n"/>
       <c r="P21" s="25" t="n"/>
       <c r="Q21" s="25" t="n"/>
@@ -12554,11 +12410,7 @@
       <c r="U21" s="25" t="n"/>
       <c r="V21" s="25" t="n"/>
       <c r="W21" s="25" t="n"/>
-      <c r="X21" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-3820</t>
-        </is>
-      </c>
+      <c r="X21" s="36" t="n"/>
       <c r="Y21" s="36" t="n"/>
       <c r="Z21" s="20" t="n"/>
       <c r="AA21" s="20" t="n"/>
@@ -12713,41 +12565,21 @@
       <c r="FT21" s="20" t="n"/>
       <c r="FU21" s="20" t="n"/>
     </row>
-    <row r="22" customFormat="1" s="20">
+    <row customFormat="1" r="22" s="20">
       <c r="A22" s="25" t="n"/>
-      <c r="B22" s="47" t="inlineStr">
-        <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
-        </is>
-      </c>
+      <c r="B22" s="47" t="n"/>
       <c r="C22" s="47" t="n"/>
       <c r="D22" s="47" t="n"/>
-      <c r="E22" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-12404</t>
-        </is>
-      </c>
+      <c r="E22" s="47" t="n"/>
       <c r="F22" s="47" t="n"/>
       <c r="G22" s="129" t="n"/>
       <c r="H22" s="47" t="n"/>
       <c r="I22" s="47" t="n"/>
-      <c r="J22" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J22" s="47" t="n"/>
       <c r="K22" s="47" t="n"/>
       <c r="L22" s="47" t="n"/>
-      <c r="M22" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N22" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M22" s="47" t="n"/>
+      <c r="N22" s="47" t="n"/>
       <c r="O22" s="47" t="n"/>
       <c r="P22" s="25" t="n"/>
       <c r="Q22" s="25" t="n"/>
@@ -12757,11 +12589,7 @@
       <c r="U22" s="25" t="n"/>
       <c r="V22" s="25" t="n"/>
       <c r="W22" s="25" t="n"/>
-      <c r="X22" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
-        </is>
-      </c>
+      <c r="X22" s="36" t="n"/>
       <c r="Y22" s="36" t="n"/>
       <c r="Z22" s="20" t="n"/>
       <c r="AA22" s="20" t="n"/>
@@ -12916,41 +12744,21 @@
       <c r="FT22" s="20" t="n"/>
       <c r="FU22" s="20" t="n"/>
     </row>
-    <row r="23" customFormat="1" s="20">
+    <row customFormat="1" r="23" s="20">
       <c r="A23" s="25" t="n"/>
-      <c r="B23" s="47" t="inlineStr">
-        <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
-        </is>
-      </c>
+      <c r="B23" s="47" t="n"/>
       <c r="C23" s="47" t="n"/>
       <c r="D23" s="47" t="n"/>
-      <c r="E23" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="E23" s="47" t="n"/>
       <c r="F23" s="47" t="n"/>
       <c r="G23" s="129" t="n"/>
       <c r="H23" s="47" t="n"/>
       <c r="I23" s="47" t="n"/>
-      <c r="J23" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J23" s="47" t="n"/>
       <c r="K23" s="47" t="n"/>
       <c r="L23" s="47" t="n"/>
-      <c r="M23" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N23" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M23" s="47" t="n"/>
+      <c r="N23" s="47" t="n"/>
       <c r="O23" s="47" t="n"/>
       <c r="P23" s="25" t="n"/>
       <c r="Q23" s="25" t="n"/>
@@ -12960,11 +12768,7 @@
       <c r="U23" s="25" t="n"/>
       <c r="V23" s="25" t="n"/>
       <c r="W23" s="25" t="n"/>
-      <c r="X23" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="X23" s="36" t="n"/>
       <c r="Y23" s="36" t="n"/>
       <c r="Z23" s="20" t="n"/>
       <c r="AA23" s="20" t="n"/>
@@ -13119,41 +12923,21 @@
       <c r="FT23" s="20" t="n"/>
       <c r="FU23" s="20" t="n"/>
     </row>
-    <row r="24" customFormat="1" s="20">
+    <row customFormat="1" r="24" s="20">
       <c r="A24" s="25" t="n"/>
-      <c r="B24" s="47" t="inlineStr">
-        <is>
-          <t>When encrypting with a block cipher, if a call to NSC_EncryptUpdate was made with data smaller than the block size, a small out of bounds write could occur. This could have caused heap corruption and a potentially exploitable crash. This vulnerability affects Thunderbird &lt; 68.3, Firefox ESR &lt; 68.3, and Firefox &lt; 71.</t>
-        </is>
-      </c>
+      <c r="B24" s="47" t="n"/>
       <c r="C24" s="47" t="n"/>
       <c r="D24" s="47" t="n"/>
-      <c r="E24" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11745</t>
-        </is>
-      </c>
+      <c r="E24" s="47" t="n"/>
       <c r="F24" s="47" t="n"/>
       <c r="G24" s="129" t="n"/>
       <c r="H24" s="47" t="n"/>
       <c r="I24" s="47" t="n"/>
-      <c r="J24" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J24" s="47" t="n"/>
       <c r="K24" s="47" t="n"/>
       <c r="L24" s="47" t="n"/>
-      <c r="M24" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N24" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M24" s="47" t="n"/>
+      <c r="N24" s="47" t="n"/>
       <c r="O24" s="47" t="n"/>
       <c r="P24" s="25" t="n"/>
       <c r="Q24" s="25" t="n"/>
@@ -13163,11 +12947,7 @@
       <c r="U24" s="25" t="n"/>
       <c r="V24" s="25" t="n"/>
       <c r="W24" s="25" t="n"/>
-      <c r="X24" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11745</t>
-        </is>
-      </c>
+      <c r="X24" s="36" t="n"/>
       <c r="Y24" s="36" t="n"/>
       <c r="Z24" s="20" t="n"/>
       <c r="AA24" s="20" t="n"/>
@@ -13322,41 +13102,21 @@
       <c r="FT24" s="20" t="n"/>
       <c r="FU24" s="20" t="n"/>
     </row>
-    <row r="25" customFormat="1" s="20">
+    <row customFormat="1" r="25" s="20">
       <c r="A25" s="25" t="n"/>
-      <c r="B25" s="47" t="inlineStr">
-        <is>
-          <t>Empty or malformed p256-ECDH public keys may trigger a segmentation fault due values being improperly sanitized before being copied into memory and used. This vulnerability affects Firefox ESR &lt; 60.8, Firefox &lt; 68, and Thunderbird &lt; 60.8.</t>
-        </is>
-      </c>
+      <c r="B25" s="47" t="n"/>
       <c r="C25" s="47" t="n"/>
       <c r="D25" s="47" t="n"/>
-      <c r="E25" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11729</t>
-        </is>
-      </c>
+      <c r="E25" s="47" t="n"/>
       <c r="F25" s="47" t="n"/>
       <c r="G25" s="129" t="n"/>
       <c r="H25" s="47" t="n"/>
       <c r="I25" s="47" t="n"/>
-      <c r="J25" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J25" s="47" t="n"/>
       <c r="K25" s="47" t="n"/>
       <c r="L25" s="47" t="n"/>
-      <c r="M25" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N25" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M25" s="47" t="n"/>
+      <c r="N25" s="47" t="n"/>
       <c r="O25" s="47" t="n"/>
       <c r="P25" s="25" t="n"/>
       <c r="Q25" s="25" t="n"/>
@@ -13366,11 +13126,7 @@
       <c r="U25" s="25" t="n"/>
       <c r="V25" s="25" t="n"/>
       <c r="W25" s="40" t="n"/>
-      <c r="X25" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11729</t>
-        </is>
-      </c>
+      <c r="X25" s="36" t="n"/>
       <c r="Y25" s="36" t="n"/>
       <c r="Z25" s="20" t="n"/>
       <c r="AA25" s="20" t="n"/>
@@ -13525,41 +13281,21 @@
       <c r="FT25" s="20" t="n"/>
       <c r="FU25" s="20" t="n"/>
     </row>
-    <row r="26" customFormat="1" s="20">
+    <row customFormat="1" r="26" s="20">
       <c r="A26" s="25" t="n"/>
-      <c r="B26" s="47" t="inlineStr">
-        <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
-        </is>
-      </c>
+      <c r="B26" s="47" t="n"/>
       <c r="C26" s="47" t="n"/>
       <c r="D26" s="47" t="n"/>
-      <c r="E26" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-12404</t>
-        </is>
-      </c>
+      <c r="E26" s="47" t="n"/>
       <c r="F26" s="47" t="n"/>
       <c r="G26" s="129" t="n"/>
       <c r="H26" s="47" t="n"/>
       <c r="I26" s="47" t="n"/>
-      <c r="J26" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J26" s="47" t="n"/>
       <c r="K26" s="47" t="n"/>
       <c r="L26" s="47" t="n"/>
-      <c r="M26" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N26" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M26" s="47" t="n"/>
+      <c r="N26" s="47" t="n"/>
       <c r="O26" s="47" t="n"/>
       <c r="P26" s="25" t="n"/>
       <c r="Q26" s="25" t="n"/>
@@ -13569,11 +13305,7 @@
       <c r="U26" s="25" t="n"/>
       <c r="V26" s="25" t="n"/>
       <c r="W26" s="25" t="n"/>
-      <c r="X26" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
-        </is>
-      </c>
+      <c r="X26" s="36" t="n"/>
       <c r="Y26" s="36" t="n"/>
       <c r="Z26" s="20" t="n"/>
       <c r="AA26" s="20" t="n"/>
@@ -13728,41 +13460,21 @@
       <c r="FT26" s="20" t="n"/>
       <c r="FU26" s="20" t="n"/>
     </row>
-    <row r="27" customFormat="1" s="20">
+    <row customFormat="1" r="27" s="20">
       <c r="A27" s="25" t="n"/>
-      <c r="B27" s="47" t="inlineStr">
-        <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
-        </is>
-      </c>
+      <c r="B27" s="47" t="n"/>
       <c r="C27" s="47" t="n"/>
       <c r="D27" s="47" t="n"/>
-      <c r="E27" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="E27" s="47" t="n"/>
       <c r="F27" s="47" t="n"/>
       <c r="G27" s="129" t="n"/>
       <c r="H27" s="47" t="n"/>
       <c r="I27" s="47" t="n"/>
-      <c r="J27" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J27" s="47" t="n"/>
       <c r="K27" s="47" t="n"/>
       <c r="L27" s="47" t="n"/>
-      <c r="M27" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N27" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M27" s="47" t="n"/>
+      <c r="N27" s="47" t="n"/>
       <c r="O27" s="47" t="n"/>
       <c r="P27" s="25" t="n"/>
       <c r="Q27" s="25" t="n"/>
@@ -13772,11 +13484,7 @@
       <c r="U27" s="25" t="n"/>
       <c r="V27" s="25" t="n"/>
       <c r="W27" s="25" t="n"/>
-      <c r="X27" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="X27" s="36" t="n"/>
       <c r="Y27" s="36" t="n"/>
       <c r="Z27" s="20" t="n"/>
       <c r="AA27" s="20" t="n"/>
@@ -13931,41 +13639,21 @@
       <c r="FT27" s="20" t="n"/>
       <c r="FU27" s="20" t="n"/>
     </row>
-    <row r="28" customFormat="1" s="20">
+    <row customFormat="1" r="28" s="20">
       <c r="A28" s="25" t="n"/>
-      <c r="B28" s="47" t="inlineStr">
-        <is>
-          <t>When encrypting with a block cipher, if a call to NSC_EncryptUpdate was made with data smaller than the block size, a small out of bounds write could occur. This could have caused heap corruption and a potentially exploitable crash. This vulnerability affects Thunderbird &lt; 68.3, Firefox ESR &lt; 68.3, and Firefox &lt; 71.</t>
-        </is>
-      </c>
+      <c r="B28" s="47" t="n"/>
       <c r="C28" s="47" t="n"/>
       <c r="D28" s="47" t="n"/>
-      <c r="E28" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11745</t>
-        </is>
-      </c>
+      <c r="E28" s="47" t="n"/>
       <c r="F28" s="47" t="n"/>
       <c r="G28" s="129" t="n"/>
       <c r="H28" s="47" t="n"/>
       <c r="I28" s="47" t="n"/>
-      <c r="J28" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J28" s="47" t="n"/>
       <c r="K28" s="47" t="n"/>
       <c r="L28" s="47" t="n"/>
-      <c r="M28" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N28" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M28" s="47" t="n"/>
+      <c r="N28" s="47" t="n"/>
       <c r="O28" s="47" t="n"/>
       <c r="P28" s="25" t="n"/>
       <c r="Q28" s="25" t="n"/>
@@ -13975,11 +13663,7 @@
       <c r="U28" s="25" t="n"/>
       <c r="V28" s="25" t="n"/>
       <c r="W28" s="25" t="n"/>
-      <c r="X28" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11745</t>
-        </is>
-      </c>
+      <c r="X28" s="36" t="n"/>
       <c r="Y28" s="36" t="n"/>
       <c r="Z28" s="20" t="n"/>
       <c r="AA28" s="20" t="n"/>
@@ -14134,41 +13818,21 @@
       <c r="FT28" s="20" t="n"/>
       <c r="FU28" s="20" t="n"/>
     </row>
-    <row r="29" customFormat="1" s="20">
+    <row customFormat="1" r="29" s="20">
       <c r="A29" s="25" t="n"/>
-      <c r="B29" s="47" t="inlineStr">
-        <is>
-          <t>Empty or malformed p256-ECDH public keys may trigger a segmentation fault due values being improperly sanitized before being copied into memory and used. This vulnerability affects Firefox ESR &lt; 60.8, Firefox &lt; 68, and Thunderbird &lt; 60.8.</t>
-        </is>
-      </c>
+      <c r="B29" s="47" t="n"/>
       <c r="C29" s="47" t="n"/>
       <c r="D29" s="47" t="n"/>
-      <c r="E29" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11729</t>
-        </is>
-      </c>
+      <c r="E29" s="47" t="n"/>
       <c r="F29" s="47" t="n"/>
       <c r="G29" s="129" t="n"/>
       <c r="H29" s="47" t="n"/>
       <c r="I29" s="47" t="n"/>
-      <c r="J29" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J29" s="47" t="n"/>
       <c r="K29" s="47" t="n"/>
       <c r="L29" s="47" t="n"/>
-      <c r="M29" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N29" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M29" s="47" t="n"/>
+      <c r="N29" s="47" t="n"/>
       <c r="O29" s="47" t="n"/>
       <c r="P29" s="25" t="n"/>
       <c r="Q29" s="25" t="n"/>
@@ -14178,11 +13842,7 @@
       <c r="U29" s="25" t="n"/>
       <c r="V29" s="25" t="n"/>
       <c r="W29" s="25" t="n"/>
-      <c r="X29" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11729</t>
-        </is>
-      </c>
+      <c r="X29" s="36" t="n"/>
       <c r="Y29" s="36" t="n"/>
       <c r="Z29" s="20" t="n"/>
       <c r="AA29" s="20" t="n"/>
@@ -14337,41 +13997,21 @@
       <c r="FT29" s="20" t="n"/>
       <c r="FU29" s="20" t="n"/>
     </row>
-    <row r="30" customFormat="1" s="20">
+    <row customFormat="1" r="30" s="20">
       <c r="A30" s="25" t="n"/>
-      <c r="B30" s="47" t="inlineStr">
-        <is>
-          <t>Improper refcounting of soft token session objects could cause a use-after-free and crash (likely limited to a denial of service). This vulnerability affects Firefox &lt; 71.</t>
-        </is>
-      </c>
+      <c r="B30" s="47" t="n"/>
       <c r="C30" s="47" t="n"/>
       <c r="D30" s="47" t="n"/>
-      <c r="E30" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11756</t>
-        </is>
-      </c>
+      <c r="E30" s="47" t="n"/>
       <c r="F30" s="47" t="n"/>
       <c r="G30" s="129" t="n"/>
       <c r="H30" s="47" t="n"/>
       <c r="I30" s="47" t="n"/>
-      <c r="J30" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J30" s="47" t="n"/>
       <c r="K30" s="47" t="n"/>
       <c r="L30" s="47" t="n"/>
-      <c r="M30" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N30" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M30" s="47" t="n"/>
+      <c r="N30" s="47" t="n"/>
       <c r="O30" s="47" t="n"/>
       <c r="P30" s="25" t="n"/>
       <c r="Q30" s="25" t="n"/>
@@ -14381,11 +14021,7 @@
       <c r="U30" s="25" t="n"/>
       <c r="V30" s="25" t="n"/>
       <c r="W30" s="25" t="n"/>
-      <c r="X30" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11756</t>
-        </is>
-      </c>
+      <c r="X30" s="36" t="n"/>
       <c r="Y30" s="36" t="n"/>
       <c r="Z30" s="20" t="n"/>
       <c r="AA30" s="20" t="n"/>
@@ -14540,41 +14176,21 @@
       <c r="FT30" s="20" t="n"/>
       <c r="FU30" s="20" t="n"/>
     </row>
-    <row r="31" customFormat="1" s="20">
+    <row customFormat="1" r="31" s="20">
       <c r="A31" s="25" t="n"/>
-      <c r="B31" s="47" t="inlineStr">
-        <is>
-          <t>NSS has shown timing differences when performing DSA signatures, which was exploitable and could eventually leak private keys. This vulnerability affects Thunderbird &lt; 68.9.0, Firefox &lt; 77, and Firefox ESR &lt; 68.9.</t>
-        </is>
-      </c>
+      <c r="B31" s="47" t="n"/>
       <c r="C31" s="47" t="n"/>
       <c r="D31" s="47" t="n"/>
-      <c r="E31" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2020-12399</t>
-        </is>
-      </c>
+      <c r="E31" s="47" t="n"/>
       <c r="F31" s="47" t="n"/>
       <c r="G31" s="129" t="n"/>
       <c r="H31" s="47" t="n"/>
       <c r="I31" s="47" t="n"/>
-      <c r="J31" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J31" s="47" t="n"/>
       <c r="K31" s="47" t="n"/>
       <c r="L31" s="47" t="n"/>
-      <c r="M31" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N31" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M31" s="47" t="n"/>
+      <c r="N31" s="47" t="n"/>
       <c r="O31" s="47" t="n"/>
       <c r="P31" s="25" t="n"/>
       <c r="Q31" s="25" t="n"/>
@@ -14584,11 +14200,7 @@
       <c r="U31" s="25" t="n"/>
       <c r="V31" s="25" t="n"/>
       <c r="W31" s="25" t="n"/>
-      <c r="X31" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-12399</t>
-        </is>
-      </c>
+      <c r="X31" s="36" t="n"/>
       <c r="Y31" s="36" t="n"/>
       <c r="Z31" s="20" t="n"/>
       <c r="AA31" s="20" t="n"/>
@@ -14743,41 +14355,21 @@
       <c r="FT31" s="20" t="n"/>
       <c r="FU31" s="20" t="n"/>
     </row>
-    <row r="32" customFormat="1" s="20">
+    <row customFormat="1" r="32" s="20">
       <c r="A32" s="25" t="n"/>
-      <c r="B32" s="47" t="inlineStr">
-        <is>
-          <t>During RSA key generation, bignum implementations used a variation of the Binary Extended Euclidean Algorithm which entailed significantly input-dependent flow. This allowed an attacker able to perform electromagnetic-based side channel attacks to record traces leading to the recovery of the secret primes. *Note:* An unmodified Firefox browser does not generate RSA keys in normal operation and is not affected, but products built on top of it might. This vulnerability affects Firefox &lt; 78.</t>
-        </is>
-      </c>
+      <c r="B32" s="47" t="n"/>
       <c r="C32" s="47" t="n"/>
       <c r="D32" s="47" t="n"/>
-      <c r="E32" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2020-12402</t>
-        </is>
-      </c>
+      <c r="E32" s="47" t="n"/>
       <c r="F32" s="47" t="n"/>
       <c r="G32" s="129" t="n"/>
       <c r="H32" s="47" t="n"/>
       <c r="I32" s="47" t="n"/>
-      <c r="J32" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J32" s="47" t="n"/>
       <c r="K32" s="47" t="n"/>
       <c r="L32" s="47" t="n"/>
-      <c r="M32" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N32" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M32" s="47" t="n"/>
+      <c r="N32" s="47" t="n"/>
       <c r="O32" s="47" t="n"/>
       <c r="P32" s="25" t="n"/>
       <c r="Q32" s="25" t="n"/>
@@ -14787,11 +14379,7 @@
       <c r="U32" s="25" t="n"/>
       <c r="V32" s="25" t="n"/>
       <c r="W32" s="25" t="n"/>
-      <c r="X32" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-12402</t>
-        </is>
-      </c>
+      <c r="X32" s="36" t="n"/>
       <c r="Y32" s="36" t="n"/>
       <c r="Z32" s="20" t="n"/>
       <c r="AA32" s="20" t="n"/>
@@ -14946,41 +14534,21 @@
       <c r="FT32" s="20" t="n"/>
       <c r="FU32" s="20" t="n"/>
     </row>
-    <row r="33" customFormat="1" s="20">
+    <row customFormat="1" r="33" s="20">
       <c r="A33" s="25" t="n"/>
-      <c r="B33" s="47" t="inlineStr">
-        <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
-        </is>
-      </c>
+      <c r="B33" s="47" t="n"/>
       <c r="C33" s="47" t="n"/>
       <c r="D33" s="47" t="n"/>
-      <c r="E33" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-12404</t>
-        </is>
-      </c>
+      <c r="E33" s="47" t="n"/>
       <c r="F33" s="47" t="n"/>
       <c r="G33" s="129" t="n"/>
       <c r="H33" s="47" t="n"/>
       <c r="I33" s="47" t="n"/>
-      <c r="J33" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J33" s="47" t="n"/>
       <c r="K33" s="47" t="n"/>
       <c r="L33" s="47" t="n"/>
-      <c r="M33" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N33" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M33" s="47" t="n"/>
+      <c r="N33" s="47" t="n"/>
       <c r="O33" s="47" t="n"/>
       <c r="P33" s="25" t="n"/>
       <c r="Q33" s="25" t="n"/>
@@ -14990,11 +14558,7 @@
       <c r="U33" s="25" t="n"/>
       <c r="V33" s="25" t="n"/>
       <c r="W33" s="25" t="n"/>
-      <c r="X33" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
-        </is>
-      </c>
+      <c r="X33" s="36" t="n"/>
       <c r="Y33" s="36" t="n"/>
       <c r="Z33" s="20" t="n"/>
       <c r="AA33" s="20" t="n"/>
@@ -15149,41 +14713,21 @@
       <c r="FT33" s="20" t="n"/>
       <c r="FU33" s="20" t="n"/>
     </row>
-    <row r="34" customFormat="1" s="20">
+    <row customFormat="1" r="34" s="20">
       <c r="A34" s="25" t="n"/>
-      <c r="B34" s="47" t="inlineStr">
-        <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
-        </is>
-      </c>
+      <c r="B34" s="47" t="n"/>
       <c r="C34" s="47" t="n"/>
       <c r="D34" s="47" t="n"/>
-      <c r="E34" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="E34" s="47" t="n"/>
       <c r="F34" s="47" t="n"/>
       <c r="G34" s="129" t="n"/>
       <c r="H34" s="47" t="n"/>
       <c r="I34" s="47" t="n"/>
-      <c r="J34" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J34" s="47" t="n"/>
       <c r="K34" s="47" t="n"/>
       <c r="L34" s="47" t="n"/>
-      <c r="M34" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N34" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M34" s="47" t="n"/>
+      <c r="N34" s="47" t="n"/>
       <c r="O34" s="47" t="n"/>
       <c r="P34" s="25" t="n"/>
       <c r="Q34" s="25" t="n"/>
@@ -15193,11 +14737,7 @@
       <c r="U34" s="25" t="n"/>
       <c r="V34" s="25" t="n"/>
       <c r="W34" s="25" t="n"/>
-      <c r="X34" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
-        </is>
-      </c>
+      <c r="X34" s="36" t="n"/>
       <c r="Y34" s="36" t="n"/>
       <c r="Z34" s="20" t="n"/>
       <c r="AA34" s="20" t="n"/>
@@ -15352,41 +14892,21 @@
       <c r="FT34" s="20" t="n"/>
       <c r="FU34" s="20" t="n"/>
     </row>
-    <row r="35" customFormat="1" s="20">
+    <row customFormat="1" r="35" s="20">
       <c r="A35" s="25" t="n"/>
-      <c r="B35" s="47" t="inlineStr">
-        <is>
-          <t>When encrypting with a block cipher, if a call to NSC_EncryptUpdate was made with data smaller than the block size, a small out of bounds write could occur. This could have caused heap corruption and a potentially exploitable crash. This vulnerability affects Thunderbird &lt; 68.3, Firefox ESR &lt; 68.3, and Firefox &lt; 71.</t>
-        </is>
-      </c>
+      <c r="B35" s="47" t="n"/>
       <c r="C35" s="47" t="n"/>
       <c r="D35" s="47" t="n"/>
-      <c r="E35" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11745</t>
-        </is>
-      </c>
+      <c r="E35" s="47" t="n"/>
       <c r="F35" s="47" t="n"/>
       <c r="G35" s="129" t="n"/>
       <c r="H35" s="47" t="n"/>
       <c r="I35" s="47" t="n"/>
-      <c r="J35" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J35" s="47" t="n"/>
       <c r="K35" s="47" t="n"/>
       <c r="L35" s="47" t="n"/>
-      <c r="M35" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N35" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M35" s="47" t="n"/>
+      <c r="N35" s="47" t="n"/>
       <c r="O35" s="47" t="n"/>
       <c r="P35" s="25" t="n"/>
       <c r="Q35" s="25" t="n"/>
@@ -15396,11 +14916,7 @@
       <c r="U35" s="25" t="n"/>
       <c r="V35" s="25" t="n"/>
       <c r="W35" s="25" t="n"/>
-      <c r="X35" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11745</t>
-        </is>
-      </c>
+      <c r="X35" s="36" t="n"/>
       <c r="Y35" s="36" t="n"/>
       <c r="Z35" s="20" t="n"/>
       <c r="AA35" s="20" t="n"/>
@@ -15555,41 +15071,21 @@
       <c r="FT35" s="20" t="n"/>
       <c r="FU35" s="20" t="n"/>
     </row>
-    <row r="36" customFormat="1" s="20">
+    <row customFormat="1" r="36" s="20">
       <c r="A36" s="25" t="n"/>
-      <c r="B36" s="47" t="inlineStr">
-        <is>
-          <t>Empty or malformed p256-ECDH public keys may trigger a segmentation fault due values being improperly sanitized before being copied into memory and used. This vulnerability affects Firefox ESR &lt; 60.8, Firefox &lt; 68, and Thunderbird &lt; 60.8.</t>
-        </is>
-      </c>
+      <c r="B36" s="47" t="n"/>
       <c r="C36" s="47" t="n"/>
       <c r="D36" s="47" t="n"/>
-      <c r="E36" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-11729</t>
-        </is>
-      </c>
+      <c r="E36" s="47" t="n"/>
       <c r="F36" s="47" t="n"/>
       <c r="G36" s="129" t="n"/>
       <c r="H36" s="47" t="n"/>
       <c r="I36" s="47" t="n"/>
-      <c r="J36" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J36" s="47" t="n"/>
       <c r="K36" s="47" t="n"/>
       <c r="L36" s="47" t="n"/>
-      <c r="M36" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N36" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M36" s="47" t="n"/>
+      <c r="N36" s="47" t="n"/>
       <c r="O36" s="47" t="n"/>
       <c r="P36" s="25" t="n"/>
       <c r="Q36" s="25" t="n"/>
@@ -15599,11 +15095,7 @@
       <c r="U36" s="25" t="n"/>
       <c r="V36" s="25" t="n"/>
       <c r="W36" s="25" t="n"/>
-      <c r="X36" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11729</t>
-        </is>
-      </c>
+      <c r="X36" s="36" t="n"/>
       <c r="Y36" s="36" t="n"/>
       <c r="Z36" s="20" t="n"/>
       <c r="AA36" s="20" t="n"/>
@@ -15758,41 +15250,21 @@
       <c r="FT36" s="20" t="n"/>
       <c r="FU36" s="20" t="n"/>
     </row>
-    <row r="37" customFormat="1" s="20">
+    <row customFormat="1" r="37" s="20">
       <c r="A37" s="25" t="n"/>
-      <c r="B37" s="47" t="inlineStr">
-        <is>
-          <t>Python 2.7.x through 2.7.16 and 3.x through 3.7.2 is affected by: Improper Handling of Unicode Encoding (with an incorrect netloc) during NFKC normalization. The impact is: Information disclosure (credentials, cookies, etc. that are cached against a given hostname). The components are: urllib.parse.urlsplit, urllib.parse.urlparse. The attack vector is: A specially crafted URL could be incorrectly parsed to locate cookies or authentication data and send that information to a different host than when parsed correctly.</t>
-        </is>
-      </c>
+      <c r="B37" s="47" t="n"/>
       <c r="C37" s="47" t="n"/>
       <c r="D37" s="47" t="n"/>
-      <c r="E37" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-9636</t>
-        </is>
-      </c>
+      <c r="E37" s="47" t="n"/>
       <c r="F37" s="47" t="n"/>
       <c r="G37" s="129" t="n"/>
       <c r="H37" s="47" t="n"/>
       <c r="I37" s="47" t="n"/>
-      <c r="J37" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J37" s="47" t="n"/>
       <c r="K37" s="47" t="n"/>
       <c r="L37" s="47" t="n"/>
-      <c r="M37" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N37" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M37" s="47" t="n"/>
+      <c r="N37" s="47" t="n"/>
       <c r="O37" s="47" t="n"/>
       <c r="P37" s="25" t="n"/>
       <c r="Q37" s="25" t="n"/>
@@ -15802,11 +15274,7 @@
       <c r="U37" s="25" t="n"/>
       <c r="V37" s="25" t="n"/>
       <c r="W37" s="25" t="n"/>
-      <c r="X37" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9636</t>
-        </is>
-      </c>
+      <c r="X37" s="36" t="n"/>
       <c r="Y37" s="36" t="n"/>
       <c r="Z37" s="20" t="n"/>
       <c r="AA37" s="20" t="n"/>
@@ -15961,41 +15429,21 @@
       <c r="FT37" s="20" t="n"/>
       <c r="FU37" s="20" t="n"/>
     </row>
-    <row r="38" customFormat="1" s="20">
+    <row customFormat="1" r="38" s="20">
       <c r="A38" s="25" t="n"/>
-      <c r="B38" s="47" t="inlineStr">
-        <is>
-          <t>urllib in Python 2.x through 2.7.16 supports the local_file: scheme, which makes it easier for remote attackers to bypass protection mechanisms that blacklist file: URIs, as demonstrated by triggering a urllib.urlopen(\'local_file:///etc/passwd\') call.</t>
-        </is>
-      </c>
+      <c r="B38" s="47" t="n"/>
       <c r="C38" s="47" t="n"/>
       <c r="D38" s="47" t="n"/>
-      <c r="E38" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-9948</t>
-        </is>
-      </c>
+      <c r="E38" s="47" t="n"/>
       <c r="F38" s="47" t="n"/>
       <c r="G38" s="129" t="n"/>
       <c r="H38" s="47" t="n"/>
       <c r="I38" s="47" t="n"/>
-      <c r="J38" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J38" s="47" t="n"/>
       <c r="K38" s="47" t="n"/>
       <c r="L38" s="47" t="n"/>
-      <c r="M38" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N38" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M38" s="47" t="n"/>
+      <c r="N38" s="47" t="n"/>
       <c r="O38" s="47" t="n"/>
       <c r="P38" s="25" t="n"/>
       <c r="Q38" s="25" t="n"/>
@@ -16005,11 +15453,7 @@
       <c r="U38" s="25" t="n"/>
       <c r="V38" s="25" t="n"/>
       <c r="W38" s="25" t="n"/>
-      <c r="X38" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9948</t>
-        </is>
-      </c>
+      <c r="X38" s="36" t="n"/>
       <c r="Y38" s="36" t="n"/>
       <c r="Z38" s="20" t="n"/>
       <c r="AA38" s="20" t="n"/>
@@ -16164,41 +15608,21 @@
       <c r="FT38" s="20" t="n"/>
       <c r="FU38" s="20" t="n"/>
     </row>
-    <row r="39" customFormat="1" s="20">
+    <row customFormat="1" r="39" s="20">
       <c r="A39" s="25" t="n"/>
-      <c r="B39" s="47" t="inlineStr">
-        <is>
-          <t>An issue was discovered in urllib2 in Python 2.x through 2.7.16 and urllib in Python 3.x through 3.7.3. CRLF injection is possible if the attacker controls a url parameter, as demonstrated by the first argument to urllib.request.urlopen with \\r\\n (specifically in the path component of a URL that lacks a ? character) followed by an HTTP header or a Redis command. This is similar to the CVE-2019-9740 query string issue.</t>
-        </is>
-      </c>
+      <c r="B39" s="47" t="n"/>
       <c r="C39" s="47" t="n"/>
       <c r="D39" s="47" t="n"/>
-      <c r="E39" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-9947</t>
-        </is>
-      </c>
+      <c r="E39" s="47" t="n"/>
       <c r="F39" s="47" t="n"/>
       <c r="G39" s="129" t="n"/>
       <c r="H39" s="47" t="n"/>
       <c r="I39" s="47" t="n"/>
-      <c r="J39" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J39" s="47" t="n"/>
       <c r="K39" s="47" t="n"/>
       <c r="L39" s="47" t="n"/>
-      <c r="M39" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N39" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M39" s="47" t="n"/>
+      <c r="N39" s="47" t="n"/>
       <c r="O39" s="47" t="n"/>
       <c r="P39" s="25" t="n"/>
       <c r="Q39" s="25" t="n"/>
@@ -16208,11 +15632,7 @@
       <c r="U39" s="25" t="n"/>
       <c r="V39" s="25" t="n"/>
       <c r="W39" s="25" t="n"/>
-      <c r="X39" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9947</t>
-        </is>
-      </c>
+      <c r="X39" s="36" t="n"/>
       <c r="Y39" s="36" t="n"/>
       <c r="Z39" s="20" t="n"/>
       <c r="AA39" s="20" t="n"/>
@@ -16367,41 +15787,21 @@
       <c r="FT39" s="20" t="n"/>
       <c r="FU39" s="20" t="n"/>
     </row>
-    <row r="40" customFormat="1" s="20">
+    <row customFormat="1" r="40" s="20">
       <c r="A40" s="25" t="n"/>
-      <c r="B40" s="47" t="inlineStr">
-        <is>
-          <t>An issue was discovered in urllib2 in Python 2.x through 2.7.16 and urllib in Python 3.x through 3.7.3. CRLF injection is possible if the attacker controls a url parameter, as demonstrated by the first argument to urllib.request.urlopen with \\r\\n (specifically in the query string after a ? character) followed by an HTTP header or a Redis command.</t>
-        </is>
-      </c>
+      <c r="B40" s="47" t="n"/>
       <c r="C40" s="47" t="n"/>
       <c r="D40" s="47" t="n"/>
-      <c r="E40" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-9740</t>
-        </is>
-      </c>
+      <c r="E40" s="47" t="n"/>
       <c r="F40" s="47" t="n"/>
       <c r="G40" s="129" t="n"/>
       <c r="H40" s="47" t="n"/>
       <c r="I40" s="47" t="n"/>
-      <c r="J40" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J40" s="47" t="n"/>
       <c r="K40" s="47" t="n"/>
       <c r="L40" s="47" t="n"/>
-      <c r="M40" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N40" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M40" s="47" t="n"/>
+      <c r="N40" s="47" t="n"/>
       <c r="O40" s="47" t="n"/>
       <c r="P40" s="25" t="n"/>
       <c r="Q40" s="25" t="n"/>
@@ -16411,11 +15811,7 @@
       <c r="U40" s="25" t="n"/>
       <c r="V40" s="25" t="n"/>
       <c r="W40" s="25" t="n"/>
-      <c r="X40" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9740</t>
-        </is>
-      </c>
+      <c r="X40" s="36" t="n"/>
       <c r="Y40" s="36" t="n"/>
       <c r="Z40" s="20" t="n"/>
       <c r="AA40" s="20" t="n"/>
@@ -16570,41 +15966,21 @@
       <c r="FT40" s="20" t="n"/>
       <c r="FU40" s="20" t="n"/>
     </row>
-    <row r="41" customFormat="1" s="20">
+    <row customFormat="1" r="41" s="20">
       <c r="A41" s="25" t="n"/>
-      <c r="B41" s="47" t="inlineStr">
-        <is>
-          <t>Python\'s elementtree C accelerator failed to initialise Expat\'s hash salt during initialization. This could make it easy to conduct denial of service attacks against Expat by constructing an XML document that would cause pathological hash collisions in Expat\'s internal data structures, consuming large amounts CPU and RAM. The vulnerability exists in Python versions 3.7.0, 3.6.0 through 3.6.6, 3.5.0 through 3.5.6, 3.4.0 through 3.4.9, 2.7.0 through 2.7.15.</t>
-        </is>
-      </c>
+      <c r="B41" s="47" t="n"/>
       <c r="C41" s="47" t="n"/>
       <c r="D41" s="47" t="n"/>
-      <c r="E41" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-14647</t>
-        </is>
-      </c>
+      <c r="E41" s="47" t="n"/>
       <c r="F41" s="47" t="n"/>
       <c r="G41" s="129" t="n"/>
       <c r="H41" s="47" t="n"/>
       <c r="I41" s="47" t="n"/>
-      <c r="J41" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J41" s="47" t="n"/>
       <c r="K41" s="47" t="n"/>
       <c r="L41" s="47" t="n"/>
-      <c r="M41" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N41" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M41" s="47" t="n"/>
+      <c r="N41" s="47" t="n"/>
       <c r="O41" s="47" t="n"/>
       <c r="P41" s="25" t="n"/>
       <c r="Q41" s="25" t="n"/>
@@ -16614,11 +15990,7 @@
       <c r="U41" s="25" t="n"/>
       <c r="V41" s="25" t="n"/>
       <c r="W41" s="25" t="n"/>
-      <c r="X41" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-14647</t>
-        </is>
-      </c>
+      <c r="X41" s="36" t="n"/>
       <c r="Y41" s="36" t="n"/>
       <c r="Z41" s="20" t="n"/>
       <c r="AA41" s="20" t="n"/>
@@ -16773,41 +16145,21 @@
       <c r="FT41" s="20" t="n"/>
       <c r="FU41" s="20" t="n"/>
     </row>
-    <row r="42" customFormat="1" s="20">
+    <row customFormat="1" r="42" s="20">
       <c r="A42" s="25" t="n"/>
-      <c r="B42" s="47" t="inlineStr">
-        <is>
-          <t>An exploitable denial-of-service vulnerability exists in the X509 certificate parser of Python.org Python 2.7.11 / 3.6.6. A specially crafted X509 certificate can cause a NULL pointer dereference, resulting in a denial of service. An attacker can initiate or accept TLS connections using crafted certificates to trigger this vulnerability.</t>
-        </is>
-      </c>
+      <c r="B42" s="47" t="n"/>
       <c r="C42" s="47" t="n"/>
       <c r="D42" s="47" t="n"/>
-      <c r="E42" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-5010</t>
-        </is>
-      </c>
+      <c r="E42" s="47" t="n"/>
       <c r="F42" s="47" t="n"/>
       <c r="G42" s="129" t="n"/>
       <c r="H42" s="47" t="n"/>
       <c r="I42" s="47" t="n"/>
-      <c r="J42" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J42" s="47" t="n"/>
       <c r="K42" s="47" t="n"/>
       <c r="L42" s="47" t="n"/>
-      <c r="M42" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N42" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M42" s="47" t="n"/>
+      <c r="N42" s="47" t="n"/>
       <c r="O42" s="47" t="n"/>
       <c r="P42" s="25" t="n"/>
       <c r="Q42" s="25" t="n"/>
@@ -16817,11 +16169,7 @@
       <c r="U42" s="25" t="n"/>
       <c r="V42" s="25" t="n"/>
       <c r="W42" s="25" t="n"/>
-      <c r="X42" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-5010</t>
-        </is>
-      </c>
+      <c r="X42" s="36" t="n"/>
       <c r="Y42" s="36" t="n"/>
       <c r="Z42" s="20" t="n"/>
       <c r="AA42" s="20" t="n"/>
@@ -16976,41 +16324,21 @@
       <c r="FT42" s="20" t="n"/>
       <c r="FU42" s="20" t="n"/>
     </row>
-    <row r="43" customFormat="1" s="20">
+    <row customFormat="1" r="43" s="20">
       <c r="A43" s="25" t="n"/>
-      <c r="B43" s="47" t="inlineStr">
-        <is>
-          <t>A security regression of CVE-2019-9636 was discovered in python since commit d537ab0ff9767ef024f26246899728f0116b1ec3 affecting versions 2.7, 3.5, 3.6, 3.7 and from v3.8.0a4 through v3.8.0b1, which still allows an attacker to exploit CVE-2019-9636 by abusing the user and password parts of a URL. When an application parses user-supplied URLs to store cookies, authentication credentials, or other kind of information, it is possible for an attacker to provide specially crafted URLs to make the application locate host-related information (e.g. cookies, authentication data) and send them to a different host than where it should, unlike if the URLs had been correctly parsed. The result of an attack may vary based on the application.</t>
-        </is>
-      </c>
+      <c r="B43" s="47" t="n"/>
       <c r="C43" s="47" t="n"/>
       <c r="D43" s="47" t="n"/>
-      <c r="E43" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-10160</t>
-        </is>
-      </c>
+      <c r="E43" s="47" t="n"/>
       <c r="F43" s="47" t="n"/>
       <c r="G43" s="129" t="n"/>
       <c r="H43" s="47" t="n"/>
       <c r="I43" s="47" t="n"/>
-      <c r="J43" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J43" s="47" t="n"/>
       <c r="K43" s="47" t="n"/>
       <c r="L43" s="47" t="n"/>
-      <c r="M43" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N43" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M43" s="47" t="n"/>
+      <c r="N43" s="47" t="n"/>
       <c r="O43" s="47" t="n"/>
       <c r="P43" s="25" t="n"/>
       <c r="Q43" s="25" t="n"/>
@@ -17020,11 +16348,7 @@
       <c r="U43" s="25" t="n"/>
       <c r="V43" s="25" t="n"/>
       <c r="W43" s="25" t="n"/>
-      <c r="X43" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-10160</t>
-        </is>
-      </c>
+      <c r="X43" s="36" t="n"/>
       <c r="Y43" s="36" t="n"/>
       <c r="Z43" s="20" t="n"/>
       <c r="AA43" s="20" t="n"/>
@@ -17179,41 +16503,21 @@
       <c r="FT43" s="20" t="n"/>
       <c r="FU43" s="20" t="n"/>
     </row>
-    <row r="44" customFormat="1" s="20">
+    <row customFormat="1" r="44" s="20">
       <c r="A44" s="25" t="n"/>
-      <c r="B44" s="47" t="inlineStr">
-        <is>
-          <t>An issue was discovered in Python through 2.7.16, 3.x through 3.5.7, 3.6.x through 3.6.9, and 3.7.x through 3.7.4. The email module wrongly parses email addresses that contain multiple @ characters. An application that uses the email module and implements some kind of checks on the From/To headers of a message could be tricked into accepting an email address that should be denied. An attack may be the same as in CVE-2019-11340; however, this CVE applies to Python more generally.</t>
-        </is>
-      </c>
+      <c r="B44" s="47" t="n"/>
       <c r="C44" s="47" t="n"/>
       <c r="D44" s="47" t="n"/>
-      <c r="E44" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-16056</t>
-        </is>
-      </c>
+      <c r="E44" s="47" t="n"/>
       <c r="F44" s="47" t="n"/>
       <c r="G44" s="129" t="n"/>
       <c r="H44" s="47" t="n"/>
       <c r="I44" s="47" t="n"/>
-      <c r="J44" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J44" s="47" t="n"/>
       <c r="K44" s="47" t="n"/>
       <c r="L44" s="47" t="n"/>
-      <c r="M44" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N44" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M44" s="47" t="n"/>
+      <c r="N44" s="47" t="n"/>
       <c r="O44" s="47" t="n"/>
       <c r="P44" s="25" t="n"/>
       <c r="Q44" s="25" t="n"/>
@@ -17223,11 +16527,7 @@
       <c r="U44" s="25" t="n"/>
       <c r="V44" s="25" t="n"/>
       <c r="W44" s="25" t="n"/>
-      <c r="X44" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-16056</t>
-        </is>
-      </c>
+      <c r="X44" s="36" t="n"/>
       <c r="Y44" s="36" t="n"/>
       <c r="Z44" s="20" t="n"/>
       <c r="AA44" s="20" t="n"/>
@@ -17382,41 +16682,21 @@
       <c r="FT44" s="20" t="n"/>
       <c r="FU44" s="20" t="n"/>
     </row>
-    <row r="45" customFormat="1" s="20">
+    <row customFormat="1" r="45" s="20">
       <c r="A45" s="19" t="n"/>
-      <c r="B45" s="47" t="inlineStr">
-        <is>
-          <t>http.cookiejar.DefaultPolicy.domain_return_ok in Lib/http/cookiejar.py in Python before 3.7.3 does not correctly validate the domain: it can be tricked into sending existing cookies to the wrong server. An attacker may abuse this flaw by using a server with a hostname that has another valid hostname as a suffix (e.g., pythonicexample.com to steal cookies for example.com). When a program uses http.cookiejar.DefaultPolicy and tries to do an HTTP connection to an attacker-controlled server, existing cookies can be leaked to the attacker. This affects 2.x through 2.7.16, 3.x before 3.4.10, 3.5.x before 3.5.7, 3.6.x before 3.6.9, and 3.7.x before 3.7.3.</t>
-        </is>
-      </c>
+      <c r="B45" s="47" t="n"/>
       <c r="C45" s="47" t="n"/>
       <c r="D45" s="47" t="n"/>
-      <c r="E45" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-20852</t>
-        </is>
-      </c>
+      <c r="E45" s="47" t="n"/>
       <c r="F45" s="47" t="n"/>
       <c r="G45" s="129" t="n"/>
       <c r="H45" s="47" t="n"/>
       <c r="I45" s="47" t="n"/>
-      <c r="J45" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J45" s="47" t="n"/>
       <c r="K45" s="47" t="n"/>
       <c r="L45" s="47" t="n"/>
-      <c r="M45" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N45" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M45" s="47" t="n"/>
+      <c r="N45" s="47" t="n"/>
       <c r="O45" s="47" t="n"/>
       <c r="P45" s="25" t="n"/>
       <c r="Q45" s="25" t="n"/>
@@ -17426,11 +16706,7 @@
       <c r="U45" s="25" t="n"/>
       <c r="V45" s="25" t="n"/>
       <c r="W45" s="25" t="n"/>
-      <c r="X45" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-20852</t>
-        </is>
-      </c>
+      <c r="X45" s="36" t="n"/>
       <c r="Y45" s="36" t="n"/>
       <c r="Z45" s="20" t="n"/>
       <c r="AA45" s="20" t="n"/>
@@ -17585,41 +16861,21 @@
       <c r="FT45" s="20" t="n"/>
       <c r="FU45" s="20" t="n"/>
     </row>
-    <row r="46" customFormat="1" s="20">
+    <row customFormat="1" r="46" s="20">
       <c r="A46" s="19" t="n"/>
-      <c r="B46" s="47" t="inlineStr">
-        <is>
-          <t>A memory leak was discovered in the backport of fixes for CVE-2018-16864 in Red Hat Enterprise Linux. Function dispatch_message_real() in journald-server.c does not free the memory allocated by set_iovec_field_free() to store the `_CMDLINE=` entry. A local attacker may use this flaw to make systemd-journald crash. This issue only affects versions shipped with Red Hat Enterprise since v219-62.2.</t>
-        </is>
-      </c>
+      <c r="B46" s="47" t="n"/>
       <c r="C46" s="47" t="n"/>
       <c r="D46" s="47" t="n"/>
-      <c r="E46" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2019-3815</t>
-        </is>
-      </c>
+      <c r="E46" s="47" t="n"/>
       <c r="F46" s="47" t="n"/>
       <c r="G46" s="129" t="n"/>
       <c r="H46" s="47" t="n"/>
       <c r="I46" s="47" t="n"/>
-      <c r="J46" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J46" s="47" t="n"/>
       <c r="K46" s="47" t="n"/>
       <c r="L46" s="47" t="n"/>
-      <c r="M46" s="47" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N46" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M46" s="47" t="n"/>
+      <c r="N46" s="47" t="n"/>
       <c r="O46" s="47" t="n"/>
       <c r="P46" s="25" t="n"/>
       <c r="Q46" s="25" t="n"/>
@@ -17629,11 +16885,7 @@
       <c r="U46" s="25" t="n"/>
       <c r="V46" s="25" t="n"/>
       <c r="W46" s="25" t="n"/>
-      <c r="X46" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-3815</t>
-        </is>
-      </c>
+      <c r="X46" s="36" t="n"/>
       <c r="Y46" s="36" t="n"/>
       <c r="Z46" s="20" t="n"/>
       <c r="AA46" s="20" t="n"/>
@@ -17788,41 +17040,21 @@
       <c r="FT46" s="20" t="n"/>
       <c r="FU46" s="20" t="n"/>
     </row>
-    <row r="47" customFormat="1" s="20">
+    <row customFormat="1" r="47" s="20">
       <c r="A47" s="19" t="n"/>
-      <c r="B47" s="47" t="inlineStr">
-        <is>
-          <t>An allocation of memory without limits, that could result in the stack clashing with another memory region, was discovered in systemd-journald when many entries are sent to the journal socket. A local attacker, or a remote one if systemd-journal-remote is used, may use this flaw to crash systemd-journald or execute code with journald privileges. Versions through v240 are vulnerable.</t>
-        </is>
-      </c>
+      <c r="B47" s="47" t="n"/>
       <c r="C47" s="47" t="n"/>
       <c r="D47" s="47" t="n"/>
-      <c r="E47" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-16865</t>
-        </is>
-      </c>
+      <c r="E47" s="47" t="n"/>
       <c r="F47" s="47" t="n"/>
       <c r="G47" s="129" t="n"/>
       <c r="H47" s="47" t="n"/>
       <c r="I47" s="47" t="n"/>
-      <c r="J47" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J47" s="47" t="n"/>
       <c r="K47" s="47" t="n"/>
       <c r="L47" s="47" t="n"/>
-      <c r="M47" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N47" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M47" s="47" t="n"/>
+      <c r="N47" s="47" t="n"/>
       <c r="O47" s="47" t="n"/>
       <c r="P47" s="25" t="n"/>
       <c r="Q47" s="25" t="n"/>
@@ -17832,11 +17064,7 @@
       <c r="U47" s="25" t="n"/>
       <c r="V47" s="25" t="n"/>
       <c r="W47" s="25" t="n"/>
-      <c r="X47" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16865</t>
-        </is>
-      </c>
+      <c r="X47" s="36" t="n"/>
       <c r="Y47" s="36" t="n"/>
       <c r="Z47" s="20" t="n"/>
       <c r="AA47" s="20" t="n"/>
@@ -17991,41 +17219,21 @@
       <c r="FT47" s="20" t="n"/>
       <c r="FU47" s="20" t="n"/>
     </row>
-    <row r="48" customFormat="1" s="20">
+    <row customFormat="1" r="48" s="20">
       <c r="A48" s="19" t="n"/>
-      <c r="B48" s="47" t="inlineStr">
-        <is>
-          <t>An allocation of memory without limits, that could result in the stack clashing with another memory region, was discovered in systemd-journald when a program with long command line arguments calls syslog. A local attacker may use this flaw to crash systemd-journald or escalate his privileges. Versions through v240 are vulnerable.</t>
-        </is>
-      </c>
+      <c r="B48" s="47" t="n"/>
       <c r="C48" s="47" t="n"/>
       <c r="D48" s="47" t="n"/>
-      <c r="E48" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-16864</t>
-        </is>
-      </c>
+      <c r="E48" s="47" t="n"/>
       <c r="F48" s="47" t="n"/>
       <c r="G48" s="129" t="n"/>
       <c r="H48" s="47" t="n"/>
       <c r="I48" s="47" t="n"/>
-      <c r="J48" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J48" s="47" t="n"/>
       <c r="K48" s="47" t="n"/>
       <c r="L48" s="47" t="n"/>
-      <c r="M48" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N48" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M48" s="47" t="n"/>
+      <c r="N48" s="47" t="n"/>
       <c r="O48" s="47" t="n"/>
       <c r="P48" s="25" t="n"/>
       <c r="Q48" s="25" t="n"/>
@@ -18035,11 +17243,7 @@
       <c r="U48" s="25" t="n"/>
       <c r="V48" s="25" t="n"/>
       <c r="W48" s="25" t="n"/>
-      <c r="X48" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16864</t>
-        </is>
-      </c>
+      <c r="X48" s="36" t="n"/>
       <c r="Y48" s="36" t="n"/>
       <c r="Z48" s="20" t="n"/>
       <c r="AA48" s="20" t="n"/>
@@ -18194,41 +17398,21 @@
       <c r="FT48" s="20" t="n"/>
       <c r="FU48" s="20" t="n"/>
     </row>
-    <row r="49" customFormat="1" s="20">
+    <row customFormat="1" r="49" s="20">
       <c r="A49" s="19" t="n"/>
-      <c r="B49" s="47" t="inlineStr">
-        <is>
-          <t>It was discovered systemd does not correctly check the content of PIDFile files before using it to kill processes. When a service is run from an unprivileged user (e.g. User field set in the service file), a local attacker who is able to write to the PIDFile of the mentioned service may use this flaw to trick systemd into killing other services and/or privileged processes. Versions before v237 are vulnerable.</t>
-        </is>
-      </c>
+      <c r="B49" s="47" t="n"/>
       <c r="C49" s="47" t="n"/>
       <c r="D49" s="47" t="n"/>
-      <c r="E49" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-16888</t>
-        </is>
-      </c>
+      <c r="E49" s="47" t="n"/>
       <c r="F49" s="47" t="n"/>
       <c r="G49" s="129" t="n"/>
       <c r="H49" s="47" t="n"/>
       <c r="I49" s="47" t="n"/>
-      <c r="J49" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J49" s="47" t="n"/>
       <c r="K49" s="47" t="n"/>
       <c r="L49" s="47" t="n"/>
-      <c r="M49" s="47" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N49" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M49" s="47" t="n"/>
+      <c r="N49" s="47" t="n"/>
       <c r="O49" s="47" t="n"/>
       <c r="P49" s="25" t="n"/>
       <c r="Q49" s="25" t="n"/>
@@ -18238,11 +17422,7 @@
       <c r="U49" s="25" t="n"/>
       <c r="V49" s="25" t="n"/>
       <c r="W49" s="25" t="n"/>
-      <c r="X49" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16888</t>
-        </is>
-      </c>
+      <c r="X49" s="36" t="n"/>
       <c r="Y49" s="36" t="n"/>
       <c r="Z49" s="20" t="n"/>
       <c r="AA49" s="20" t="n"/>
@@ -18397,41 +17577,21 @@
       <c r="FT49" s="20" t="n"/>
       <c r="FU49" s="20" t="n"/>
     </row>
-    <row r="50" customFormat="1" s="20">
+    <row customFormat="1" r="50" s="20">
       <c r="A50" s="19" t="n"/>
-      <c r="B50" s="47" t="inlineStr">
-        <is>
-          <t>An out of bounds read was discovered in systemd-journald in the way it parses log messages that terminate with a colon \':\'. A local attacker can use this flaw to disclose process memory data. Versions from v221 to v239 are vulnerable.</t>
-        </is>
-      </c>
+      <c r="B50" s="47" t="n"/>
       <c r="C50" s="47" t="n"/>
       <c r="D50" s="47" t="n"/>
-      <c r="E50" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-16866</t>
-        </is>
-      </c>
+      <c r="E50" s="47" t="n"/>
       <c r="F50" s="47" t="n"/>
       <c r="G50" s="129" t="n"/>
       <c r="H50" s="47" t="n"/>
       <c r="I50" s="47" t="n"/>
-      <c r="J50" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J50" s="47" t="n"/>
       <c r="K50" s="47" t="n"/>
       <c r="L50" s="47" t="n"/>
-      <c r="M50" s="47" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N50" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M50" s="47" t="n"/>
+      <c r="N50" s="47" t="n"/>
       <c r="O50" s="47" t="n"/>
       <c r="P50" s="25" t="n"/>
       <c r="Q50" s="25" t="n"/>
@@ -18441,11 +17601,7 @@
       <c r="U50" s="25" t="n"/>
       <c r="V50" s="25" t="n"/>
       <c r="W50" s="25" t="n"/>
-      <c r="X50" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16866</t>
-        </is>
-      </c>
+      <c r="X50" s="36" t="n"/>
       <c r="Y50" s="36" t="n"/>
       <c r="Z50" s="20" t="n"/>
       <c r="AA50" s="20" t="n"/>
@@ -18600,41 +17756,21 @@
       <c r="FT50" s="20" t="n"/>
       <c r="FU50" s="20" t="n"/>
     </row>
-    <row r="51" customFormat="1" s="20">
+    <row customFormat="1" r="51" s="20">
       <c r="A51" s="19" t="n"/>
-      <c r="B51" s="47" t="inlineStr">
-        <is>
-          <t>A buffer overflow vulnerability in the dhcp6 client of systemd allows a malicious dhcp6 server to overwrite heap memory in systemd-networkd. Affected releases are systemd: versions up to and including 239.</t>
-        </is>
-      </c>
+      <c r="B51" s="47" t="n"/>
       <c r="C51" s="47" t="n"/>
       <c r="D51" s="47" t="n"/>
-      <c r="E51" s="47" t="inlineStr">
-        <is>
-          <t>CVE-2018-15688</t>
-        </is>
-      </c>
+      <c r="E51" s="47" t="n"/>
       <c r="F51" s="47" t="n"/>
       <c r="G51" s="129" t="n"/>
       <c r="H51" s="47" t="n"/>
       <c r="I51" s="47" t="n"/>
-      <c r="J51" s="47" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
+      <c r="J51" s="47" t="n"/>
       <c r="K51" s="47" t="n"/>
       <c r="L51" s="47" t="n"/>
-      <c r="M51" s="47" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N51" s="47" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
+      <c r="M51" s="47" t="n"/>
+      <c r="N51" s="47" t="n"/>
       <c r="O51" s="47" t="n"/>
       <c r="P51" s="25" t="n"/>
       <c r="Q51" s="25" t="n"/>
@@ -18644,11 +17780,7 @@
       <c r="U51" s="25" t="n"/>
       <c r="V51" s="25" t="n"/>
       <c r="W51" s="25" t="n"/>
-      <c r="X51" s="36" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-15688</t>
-        </is>
-      </c>
+      <c r="X51" s="36" t="n"/>
       <c r="Y51" s="36" t="n"/>
       <c r="Z51" s="20" t="n"/>
       <c r="AA51" s="20" t="n"/>
@@ -18803,3563 +17935,6 @@
       <c r="FT51" s="20" t="n"/>
       <c r="FU51" s="20" t="n"/>
     </row>
-    <row r="52">
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>A vulnerability in unit_deserialize of systemd allows an attacker to supply arbitrary state across systemd re-execution via NotifyAccess. This can be used to improperly influence systemd execution and possibly lead to root privilege escalation. Affected releases are systemd versions up to and including 239.</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>CVE-2018-15686</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-15686</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>An issue was discovered in sd-bus in systemd 239. bus_process_object() in libsystemd/sd-bus/bus-objects.c allocates a variable-length stack buffer for temporarily storing the object path of incoming D-Bus messages. An unprivileged local user can exploit this by sending a specially crafted message to PID1, causing the stack pointer to jump over the stack guard pages into an unmapped memory region and trigger a denial of service (systemd PID1 crash and kernel panic).</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>CVE-2019-6454</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-6454</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>A memory leak was discovered in the backport of fixes for CVE-2018-16864 in Red Hat Enterprise Linux. Function dispatch_message_real() in journald-server.c does not free the memory allocated by set_iovec_field_free() to store the `_CMDLINE=` entry. A local attacker may use this flaw to make systemd-journald crash. This issue only affects versions shipped with Red Hat Enterprise since v219-62.2.</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>CVE-2019-3815</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-3815</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>An allocation of memory without limits, that could result in the stack clashing with another memory region, was discovered in systemd-journald when many entries are sent to the journal socket. A local attacker, or a remote one if systemd-journal-remote is used, may use this flaw to crash systemd-journald or execute code with journald privileges. Versions through v240 are vulnerable.</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>CVE-2018-16865</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16865</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>An allocation of memory without limits, that could result in the stack clashing with another memory region, was discovered in systemd-journald when a program with long command line arguments calls syslog. A local attacker may use this flaw to crash systemd-journald or escalate his privileges. Versions through v240 are vulnerable.</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>CVE-2018-16864</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16864</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>It was discovered systemd does not correctly check the content of PIDFile files before using it to kill processes. When a service is run from an unprivileged user (e.g. User field set in the service file), a local attacker who is able to write to the PIDFile of the mentioned service may use this flaw to trick systemd into killing other services and/or privileged processes. Versions before v237 are vulnerable.</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>CVE-2018-16888</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16888</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>An out of bounds read was discovered in systemd-journald in the way it parses log messages that terminate with a colon \':\'. A local attacker can use this flaw to disclose process memory data. Versions from v221 to v239 are vulnerable.</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>CVE-2018-16866</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16866</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>A buffer overflow vulnerability in the dhcp6 client of systemd allows a malicious dhcp6 server to overwrite heap memory in systemd-networkd. Affected releases are systemd: versions up to and including 239.</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>CVE-2018-15688</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-15688</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>A vulnerability in unit_deserialize of systemd allows an attacker to supply arbitrary state across systemd re-execution via NotifyAccess. This can be used to improperly influence systemd execution and possibly lead to root privilege escalation. Affected releases are systemd versions up to and including 239.</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>CVE-2018-15686</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-15686</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>systemd-tmpfiles in systemd through 237 mishandles symlinks present in non-terminal path components, which allows local users to obtain ownership of arbitrary files via vectors involving creation of a directory and a file under that directory, and later replacing that directory with a symlink. This occurs even if the fs.protected_symlinks sysctl is turned on.</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>CVE-2018-6954</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-6954</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>An issue was discovered in sd-bus in systemd 239. bus_process_object() in libsystemd/sd-bus/bus-objects.c allocates a variable-length stack buffer for temporarily storing the object path of incoming D-Bus messages. An unprivileged local user can exploit this by sending a specially crafted message to PID1, causing the stack pointer to jump over the stack guard pages into an unmapped memory region and trigger a denial of service (systemd PID1 crash and kernel panic).</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>CVE-2019-6454</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-6454</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>In systemd before v242-rc4, it was discovered that pam_systemd does not properly sanitize the environment before using the XDG_SEAT variable. It is possible for an attacker, in some particular configurations, to set a XDG_SEAT environment variable which allows for commands to be checked against polkit policies using the \"allow_active\" element rather than \"allow_any\".</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>CVE-2019-3842</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-3842</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>An issue was discovered in button_open in login/logind-button.c in systemd before 243. When executing the udevadm trigger command, a memory leak may occur.</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>CVE-2019-20386</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-20386</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Divide-by-zero vulnerabilities in the function arlib_add_symbols() in arlib.c in elfutils 0.174 allow remote attackers to cause a denial of service (application crash) with a crafted ELF file, as demonstrated by eu-ranlib, because a zero sh_entsize is mishandled.</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>CVE-2018-18521</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18521</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>An Invalid Memory Address Dereference exists in the function elf_end in libelf in elfutils through v0.174. Although eu-size is intended to support ar files inside ar files, handle_ar in size.c closes the outer ar file before handling all inner entries. The vulnerability allows attackers to cause a denial of service (application crash) with a crafted ELF file.</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>CVE-2018-18520</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18520</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>An invalid memory address dereference was discovered in dwfl_segment_report_module.c in libdwfl in elfutils through v0.174. The vulnerability allows attackers to cause a denial of service (application crash) with a crafted ELF file, as demonstrated by consider_notes.</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>CVE-2018-18310</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18310</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>libdw in elfutils 0.173 checks the end of the attributes list incorrectly in dwarf_getabbrev in dwarf_getabbrev.c and dwarf_hasattr in dwarf_hasattr.c, leading to a heap-based buffer over-read and an application crash.</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>CVE-2018-16403</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16403</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>libelf/elf_end.c in elfutils 0.173 allows remote attackers to cause a denial of service (double free and application crash) or possibly have unspecified other impact because it tries to decompress twice.</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>CVE-2018-16402</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16402</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>dwarf_getaranges in dwarf_getaranges.c in libdw in elfutils before 2018-08-18 allows remote attackers to cause a denial of service (heap-based buffer over-read) via a crafted file.</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>CVE-2018-16062</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X70" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16062</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>In elfutils 0.175, a heap-based buffer over-read was discovered in the function elf32_xlatetom in elf32_xlatetom.c in libelf. A crafted ELF input can cause a segmentation fault leading to denial of service (program crash) because ebl_core_note does not reject malformed core file notes.</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>CVE-2019-7665</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X71" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7665</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>In elfutils 0.175, a negative-sized memcpy is attempted in elf_cvt_note in libelf/note_xlate.h because of an incorrect overflow check. Crafted elf input causes a segmentation fault, leading to denial of service (program crash).</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>CVE-2019-7664</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7664</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>An issue was discovered in elfutils 0.175. A segmentation fault can occur in the function elf64_xlatetom in libelf/elf32_xlatetom.c, due to dwfl_segment_report_module not checking whether the dyn data read from a core file is truncated. A crafted input can cause a program crash, leading to denial-of-service, as demonstrated by eu-stack.</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>CVE-2019-7150</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7150</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>A heap-based buffer over-read was discovered in the function read_srclines in dwarf_getsrclines.c in libdw in elfutils 0.175. A crafted input can cause segmentation faults, leading to denial-of-service, as demonstrated by eu-nm.</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>CVE-2019-7149</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X74" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7149</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>getchar.c in Vim before 8.1.1365 and Neovim before 0.3.6 allows remote attackers to execute arbitrary OS commands via the :source! command in a modeline, as demonstrated by execute in Vim, and assert_fails or nvim_input in Neovim.</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>CVE-2019-12735</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-12735</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>In libexpat before 2.2.8, crafted XML input could fool the parser into changing from DTD parsing to document parsing too early; a consecutive call to XML_GetCurrentLineNumber (or XML_GetCurrentColumnNumber) then resulted in a heap-based buffer over-read.</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>CVE-2019-15903</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X76" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-15903</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>In libexpat in Expat before 2.2.7, XML input including XML names that contain a large number of colons could make the XML parser consume a high amount of RAM and CPU resources while processing (enough to be usable for denial-of-service attacks).</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>CVE-2018-20843</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-20843</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>libpng before 1.6.32 does not properly check the length of chunks against the user limit.</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>CVE-2017-12652</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2017-12652</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>xmlParseBalancedChunkMemoryRecover in parser.c in libxml2 before 2.9.10 has a memory leak related to newDoc-&gt;oldNs.</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>CVE-2019-19956</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-19956</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>In generate_jsimd_ycc_rgb_convert_neon of jsimd_arm64_neon.S, there is a possible out of bounds write due to a missing bounds check. This could lead to remote code execution in an unprivileged process with no additional execution privileges needed. User interaction is needed for exploitation.Product: AndroidVersions: Android-8.0 Android-8.1 Android-9 Android-10Android ID: A-120551338</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>CVE-2019-2201</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-2201</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>To provide fine-grained controls over the ability to use Dynamic DNS (DDNS) to update records in a zone, BIND 9 provides a feature called update-policy. Various rules can be configured to limit the types of updates that can be performed by a client, depending on the key used when sending the update request. Unfortunately, some rule types were not initially documented, and when documentation for them was added to the Administrator Reference Manual (ARM) in change #3112, the language that was added to the ARM at that time incorrectly described the behavior of two rule types, krb5-subdomain and ms-subdomain. This incorrect documentation could mislead operators into believing that policies they had configured were more restrictive than they actually were. This affects BIND versions prior to BIND 9.11.5 and BIND 9.12.3.</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>CVE-2018-5741</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-5741</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>While backporting a feature for a newer branch of BIND9, RedHat introduced a path leading to an assertion failure in buffer.c:420. Affects RedHat versions bind-9.9.4-65.el7 -&gt; bind-9.9.4-72.el7. No ISC releases are affected. Other packages from other distributions who made the same error may also be affected.</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>CVE-2018-5742</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-5742</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>By design, BIND is intended to limit the number of TCP clients that can be connected at any given time. The number of allowed connections is a tunable parameter which, if unset, defaults to a conservative value for most servers. Unfortunately, the code which was intended to limit the number of simultaneous connections contained an error which could be exploited to grow the number of simultaneous connections beyond this limit. Versions affected: BIND 9.9.0 -&gt; 9.10.8-P1, 9.11.0 -&gt; 9.11.6, 9.12.0 -&gt; 9.12.4, 9.14.0. BIND 9 Supported Preview Edition versions 9.9.3-S1 -&gt; 9.11.5-S3, and 9.11.5-S5. Versions 9.13.0 -&gt; 9.13.7 of the 9.13 development branch are also affected. Versions prior to BIND 9.9.0 have not been evaluated for vulnerability to CVE-2018-5743.</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>CVE-2018-5743</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-5743</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>With pipelining enabled each incoming query on a TCP connection requires a similar resource allocation to a query received via UDP or via TCP without pipelining enabled. A client using a TCP-pipelined connection to a server could consume more resources than the server has been provisioned to handle. When a TCP connection with a large number of pipelined queries is closed, the load on the server releasing these multiple resources can cause it to become unresponsive, even for queries that can be answered authoritatively or from cache. (This is most likely to be perceived as an intermittent server problem).</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>CVE-2019-6477</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-6477</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>\"managed-keys\" is a feature which allows a BIND resolver to automatically maintain the keys used by trust anchors which operators configure for use in DNSSEC validation. Due to an error in the managed-keys feature it is possible for a BIND server which uses managed-keys to exit due to an assertion failure if, during key rollover, a trust anchor\'s keys are replaced with keys which use an unsupported algorithm. Versions affected: BIND 9.9.0 -&gt; 9.10.8-P1, 9.11.0 -&gt; 9.11.5-P1, 9.12.0 -&gt; 9.12.3-P1, and versions 9.9.3-S1 -&gt; 9.11.5-S3 of BIND 9 Supported Preview Edition. Versions 9.13.0 -&gt; 9.13.6 of the 9.13 development branch are also affected. Versions prior to BIND 9.9.0 have not been evaluated for vulnerability to CVE-2018-5745.</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>CVE-2018-5745</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-5745</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>A malicious actor who intentionally exploits this lack of effective limitation on the number of fetches performed when processing referrals can, through the use of specially crafted referrals, cause a recursing server to issue a very large number of fetches in an attempt to process the referral. This has at least two potential effects: The performance of the recursing server can potentially be degraded by the additional work required to perform these fetches, and The attacker can exploit this behavior to use the recursing server as a reflector in a reflection attack with a high amplification factor.</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>CVE-2020-8616</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-8616</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Using a specially-crafted message, an attacker may potentially cause a BIND server to reach an inconsistent state if the attacker knows (or successfully guesses) the name of a TSIG key used by the server. Since BIND, by default, configures a local session key even on servers whose configuration does not otherwise make use of it, almost all current BIND servers are vulnerable. In releases of BIND dating from March 2018 and after, an assertion check in tsig.c detects this inconsistent state and deliberately exits. Prior to the introduction of the check the server would continue operating in an inconsistent state, with potentially harmful results.</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>CVE-2020-8617</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-8617</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Controls for zone transfers may not be properly applied to Dynamically Loadable Zones (DLZs) if the zones are writable Versions affected: BIND 9.9.0 -&gt; 9.10.8-P1, 9.11.0 -&gt; 9.11.5-P2, 9.12.0 -&gt; 9.12.3-P2, and versions 9.9.3-S1 -&gt; 9.11.5-S3 of BIND 9 Supported Preview Edition. Versions 9.13.0 -&gt; 9.13.6 of the 9.13 development branch are also affected. Versions prior to BIND 9.9.0 have not been evaluated for vulnerability to CVE-2019-6465.</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>CVE-2019-6465</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-6465</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>regcomp.c in Perl before 5.30.3 allows a buffer overflow via a crafted regular expression because of recursive S_study_chunk calls.</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>CVE-2020-12723</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-12723</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Perl before 5.30.3 has an integer overflow related to mishandling of a \"PL_regkind[OP(n)] == NOTHING\" situation. A crafted regular expression could lead to malformed bytecode with a possibility of instruction injection.</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>CVE-2020-10878</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X90" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-10878</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Perl before 5.30.3 on 32-bit platforms allows a heap-based buffer overflow because nested regular expression quantifiers have an integer overflow.</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>CVE-2020-10543</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-10543</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>CVE-2018-12404</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X92" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>CVE-2018-0495</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>When encrypting with a block cipher, if a call to NSC_EncryptUpdate was made with data smaller than the block size, a small out of bounds write could occur. This could have caused heap corruption and a potentially exploitable crash. This vulnerability affects Thunderbird &lt; 68.3, Firefox ESR &lt; 68.3, and Firefox &lt; 71.</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>CVE-2019-11745</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X94" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11745</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Empty or malformed p256-ECDH public keys may trigger a segmentation fault due values being improperly sanitized before being copied into memory and used. This vulnerability affects Firefox ESR &lt; 60.8, Firefox &lt; 68, and Thunderbird &lt; 60.8.</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>CVE-2019-11729</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X95" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11729</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>GIT version 2.15.1 and earlier contains a Input Validation Error vulnerability in Client that can result in problems including messing up terminal configuration to RCE. This attack appear to be exploitable via The user must interact with a malicious git server, (or have their traffic modified in a MITM attack).</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>CVE-2018-1000021</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-1000021</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Affected versions of Git have a vulnerability whereby Git can be tricked into sending private credentials to a host controlled by an attacker. This bug is similar to CVE-2020-5260(GHSA-qm7j-c969-7j4q). The fix for that bug still left the door open for an exploit where _some_ credential is leaked (but the attacker cannot control which one). Git uses external \"credential helper\" programs to store and retrieve passwords or other credentials from secure storage provided by the operating system. Specially-crafted URLs that are considered illegal as of the recently published Git versions can cause Git to send a \"blank\" pattern to helpers, missing hostname and protocol fields. Many helpers will interpret this as matching _any_ URL, and will return some unspecified stored password, leaking the password to an attacker\'s server. The vulnerability can be triggered by feeding a malicious URL to `git clone`. However, the affected URLs look rather suspicious; the likely vector would be through systems which automatically clone URLs not visible to the user, such as Git submodules, or package systems built around Git. The root of the problem is in Git itself, which should not be feeding blank input to helpers. However, the ability to exploit the vulnerability in practice depends on which helpers are in use. Credential helpers which are known to trigger the vulnerability: - Git\'s \"store\" helper</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>CVE-2020-11008</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X97" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-11008</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>libpcre in PCRE before 8.44 allows an integer overflow via a large number after a (?C substring.</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>CVE-2020-14155</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-14155</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Divide-by-zero vulnerabilities in the function arlib_add_symbols() in arlib.c in elfutils 0.174 allow remote attackers to cause a denial of service (application crash) with a crafted ELF file, as demonstrated by eu-ranlib, because a zero sh_entsize is mishandled.</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>CVE-2018-18521</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N99" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X99" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18521</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>An Invalid Memory Address Dereference exists in the function elf_end in libelf in elfutils through v0.174. Although eu-size is intended to support ar files inside ar files, handle_ar in size.c closes the outer ar file before handling all inner entries. The vulnerability allows attackers to cause a denial of service (application crash) with a crafted ELF file.</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>CVE-2018-18520</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X100" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18520</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>An invalid memory address dereference was discovered in dwfl_segment_report_module.c in libdwfl in elfutils through v0.174. The vulnerability allows attackers to cause a denial of service (application crash) with a crafted ELF file, as demonstrated by consider_notes.</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>CVE-2018-18310</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X101" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18310</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>libdw in elfutils 0.173 checks the end of the attributes list incorrectly in dwarf_getabbrev in dwarf_getabbrev.c and dwarf_hasattr in dwarf_hasattr.c, leading to a heap-based buffer over-read and an application crash.</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>CVE-2018-16403</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X102" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16403</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>libelf/elf_end.c in elfutils 0.173 allows remote attackers to cause a denial of service (double free and application crash) or possibly have unspecified other impact because it tries to decompress twice.</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>CVE-2018-16402</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X103" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16402</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>dwarf_getaranges in dwarf_getaranges.c in libdw in elfutils before 2018-08-18 allows remote attackers to cause a denial of service (heap-based buffer over-read) via a crafted file.</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>CVE-2018-16062</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X104" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16062</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>In elfutils 0.175, a heap-based buffer over-read was discovered in the function elf32_xlatetom in elf32_xlatetom.c in libelf. A crafted ELF input can cause a segmentation fault leading to denial of service (program crash) because ebl_core_note does not reject malformed core file notes.</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>CVE-2019-7665</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X105" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7665</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>In elfutils 0.175, a negative-sized memcpy is attempted in elf_cvt_note in libelf/note_xlate.h because of an incorrect overflow check. Crafted elf input causes a segmentation fault, leading to denial of service (program crash).</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>CVE-2019-7664</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X106" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7664</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>An issue was discovered in elfutils 0.175. A segmentation fault can occur in the function elf64_xlatetom in libelf/elf32_xlatetom.c, due to dwfl_segment_report_module not checking whether the dyn data read from a core file is truncated. A crafted input can cause a program crash, leading to denial-of-service, as demonstrated by eu-stack.</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>CVE-2019-7150</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X107" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7150</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>A heap-based buffer over-read was discovered in the function read_srclines in dwarf_getsrclines.c in libdw in elfutils 0.175. A crafted input can cause segmentation faults, leading to denial-of-service, as demonstrated by eu-nm.</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>CVE-2019-7149</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X108" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7149</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>In all versions of cpio before 2.13 does not properly validate input files when generating TAR archives. When cpio is used to create TAR archives from paths an attacker can write to, the resulting archive may contain files with permissions the attacker did not have or in paths he did not have access to. Extracting those archives from a high-privilege user without carefully reviewing them may lead to the compromise of the system.</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>CVE-2019-14866</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X109" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-14866</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>file_copy_fallback in gio/gfile.c in GNOME GLib 2.15.0 through 2.61.1 does not properly restrict file permissions while a copy operation is in progress. Instead, default permissions are used.</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>CVE-2019-12450</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X110" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-12450</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>A cached side channel attack during handshakes using RSA encryption could allow for the decryption of encrypted content. This is a variant of the Adaptive Chosen Ciphertext attack (AKA Bleichenbacher attack) and affects all NSS versions prior to NSS 3.41.</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>CVE-2018-12404</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X111" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12404</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Libgcrypt before 1.7.10 and 1.8.x before 1.8.3 allows a memory-cache side-channel attack on ECDSA signatures that can be mitigated through the use of blinding during the signing process in the _gcry_ecc_ecdsa_sign function in cipher/ecc-ecdsa.c, aka the Return Of the Hidden Number Problem or ROHNP. To discover an ECDSA key, the attacker needs access to either the local machine or a different virtual machine on the same physical host.</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>CVE-2018-0495</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X112" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-0495</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>When encrypting with a block cipher, if a call to NSC_EncryptUpdate was made with data smaller than the block size, a small out of bounds write could occur. This could have caused heap corruption and a potentially exploitable crash. This vulnerability affects Thunderbird &lt; 68.3, Firefox ESR &lt; 68.3, and Firefox &lt; 71.</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>CVE-2019-11745</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X113" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11745</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Empty or malformed p256-ECDH public keys may trigger a segmentation fault due values being improperly sanitized before being copied into memory and used. This vulnerability affects Firefox ESR &lt; 60.8, Firefox &lt; 68, and Thunderbird &lt; 60.8.</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>CVE-2019-11729</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11729</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>The do_core_note function in readelf.c in libmagic.a in file 5.33 allows remote attackers to cause a denial of service (out-of-bounds read and application crash) via a crafted ELF file.</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>CVE-2018-10360</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-10360</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>A NULL pointer dereference (aka SEGV on unknown address 0x000000000000) was discovered in work_stuff_copy_to_from in cplus-dem.c in GNU libiberty, as distributed in GNU Binutils 2.30. This can occur during execution of objdump.</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>CVE-2018-12697</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12697</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>An issue was discovered in arm_pt in cplus-dem.c in GNU libiberty, as distributed in GNU Binutils 2.30. Stack Exhaustion occurs in the C++ demangling functions provided by libiberty, and there are recursive stack frames: demangle_arm_hp_template, demangle_class_name, demangle_fund_type, do_type, do_arg, demangle_args, and demangle_nested_args. This can occur during execution of nm-new.</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>CVE-2018-12641</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-12641</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>binutils version 2.32 and earlier contains a Integer Overflow vulnerability in objdump, bfd_get_dynamic_reloc_upper_bound,bfd_canonicalize_dynamic_reloc that can result in Integer overflow trigger heap overflow. Successful exploitation allows execution of arbitrary code.. This attack appear to be exploitable via Local. This vulnerability appears to have been fixed in after commit 3a551c7a1b80fca579461774860574eabfd7f18f.</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>CVE-2018-1000876</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-1000876</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>An issue was discovered in the server in OpenLDAP before 2.4.48. When the server administrator delegates rootDN (database admin) privileges for certain databases but wants to maintain isolation (e.g., for multi-tenant deployments), slapd does not properly stop a rootDN from requesting authorization as an identity from another database during a SASL bind or with a proxyAuthz (RFC 4370) control. (It is not a common configuration to deploy a system where the server administrator and a DB administrator enjoy different levels of trust.)</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>CVE-2019-13057</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X119" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-13057</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>An issue was discovered in OpenLDAP 2.x before 2.4.48. When using SASL authentication and session encryption, and relying on the SASL security layers in slapd access controls, it is possible to obtain access that would otherwise be denied via a simple bind for any identity covered in those ACLs. After the first SASL bind is completed, the sasl_ssf value is retained for all new non-SASL connections. Depending on the ACL configuration, this can affect different types of operations (searches, modifications, etc.). In other words, a successful authorization step completed by one user affects the authorization requirement for a different user.</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>CVE-2019-13565</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X120" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-13565</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>In filter.c in slapd in OpenLDAP before 2.4.50, LDAP search filters with nested boolean expressions can result in denial of service (daemon crash).</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>CVE-2020-12243</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X121" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-12243</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>An issue was discovered in urllib2 in Python 2.x through 2.7.16 and urllib in Python 3.x through 3.7.3. CRLF injection is possible if the attacker controls a url parameter, as demonstrated by the first argument to urllib.request.urlopen with \\r\\n (specifically in the path component of a URL that lacks a ? character) followed by an HTTP header or a Redis command. This is similar to the CVE-2019-9740 query string issue.</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>CVE-2019-9947</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X122" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9947</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>An issue was discovered in urllib2 in Python 2.x through 2.7.16 and urllib in Python 3.x through 3.7.3. CRLF injection is possible if the attacker controls a url parameter, as demonstrated by the first argument to urllib.request.urlopen with \\r\\n (specifically in the query string after a ? character) followed by an HTTP header or a Redis command.</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>CVE-2019-9740</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X123" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9740</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Python\'s elementtree C accelerator failed to initialise Expat\'s hash salt during initialization. This could make it easy to conduct denial of service attacks against Expat by constructing an XML document that would cause pathological hash collisions in Expat\'s internal data structures, consuming large amounts CPU and RAM. The vulnerability exists in Python versions 3.7.0, 3.6.0 through 3.6.6, 3.5.0 through 3.5.6, 3.4.0 through 3.4.9, 2.7.0 through 2.7.15.</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>CVE-2018-14647</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X124" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-14647</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>An exploitable denial-of-service vulnerability exists in the X509 certificate parser of Python.org Python 2.7.11 / 3.6.6. A specially crafted X509 certificate can cause a NULL pointer dereference, resulting in a denial of service. An attacker can initiate or accept TLS connections using crafted certificates to trigger this vulnerability.</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>CVE-2019-5010</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X125" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-5010</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Python 2.7.x through 2.7.16 and 3.x through 3.7.2 is affected by: Improper Handling of Unicode Encoding (with an incorrect netloc) during NFKC normalization. The impact is: Information disclosure (credentials, cookies, etc. that are cached against a given hostname). The components are: urllib.parse.urlsplit, urllib.parse.urlparse. The attack vector is: A specially crafted URL could be incorrectly parsed to locate cookies or authentication data and send that information to a different host than when parsed correctly.</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>CVE-2019-9636</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X126" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9636</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>http.cookiejar.DefaultPolicy.domain_return_ok in Lib/http/cookiejar.py in Python before 3.7.3 does not correctly validate the domain: it can be tricked into sending existing cookies to the wrong server. An attacker may abuse this flaw by using a server with a hostname that has another valid hostname as a suffix (e.g., pythonicexample.com to steal cookies for example.com). When a program uses http.cookiejar.DefaultPolicy and tries to do an HTTP connection to an attacker-controlled server, existing cookies can be leaked to the attacker. This affects 2.x through 2.7.16, 3.x before 3.4.10, 3.5.x before 3.5.7, 3.6.x before 3.6.9, and 3.7.x before 3.7.3.</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>CVE-2018-20852</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X127" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-20852</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>An issue was discovered in Python through 2.7.16, 3.x through 3.5.7, 3.6.x through 3.6.9, and 3.7.x through 3.7.4. The email module wrongly parses email addresses that contain multiple @ characters. An application that uses the email module and implements some kind of checks on the From/To headers of a message could be tricked into accepting an email address that should be denied. An attack may be the same as in CVE-2019-11340; however, this CVE applies to Python more generally.</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>CVE-2019-16056</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X128" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-16056</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>The documentation XML-RPC server in Python through 2.7.16, 3.x through 3.6.9, and 3.7.x through 3.7.4 has XSS via the server_title field. This occurs in Lib/DocXMLRPCServer.py in Python 2.x, and in Lib/xmlrpc/server.py in Python 3.x. If set_server_title is called with untrusted input, arbitrary JavaScript can be delivered to clients that visit the http URL for this server.</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>CVE-2019-16935</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N129" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X129" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-16935</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>In Lib/tarfile.py in Python through 3.8.3, an attacker is able to craft a TAR archive leading to an infinite loop when opened by tarfile.open, because _proc_pax lacks header validation.</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>CVE-2019-20907</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N130" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X130" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-20907</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Divide-by-zero vulnerabilities in the function arlib_add_symbols() in arlib.c in elfutils 0.174 allow remote attackers to cause a denial of service (application crash) with a crafted ELF file, as demonstrated by eu-ranlib, because a zero sh_entsize is mishandled.</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>CVE-2018-18521</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N131" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X131" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18521</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>An Invalid Memory Address Dereference exists in the function elf_end in libelf in elfutils through v0.174. Although eu-size is intended to support ar files inside ar files, handle_ar in size.c closes the outer ar file before handling all inner entries. The vulnerability allows attackers to cause a denial of service (application crash) with a crafted ELF file.</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>CVE-2018-18520</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X132" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18520</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>An invalid memory address dereference was discovered in dwfl_segment_report_module.c in libdwfl in elfutils through v0.174. The vulnerability allows attackers to cause a denial of service (application crash) with a crafted ELF file, as demonstrated by consider_notes.</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>CVE-2018-18310</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X133" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-18310</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>libdw in elfutils 0.173 checks the end of the attributes list incorrectly in dwarf_getabbrev in dwarf_getabbrev.c and dwarf_hasattr in dwarf_hasattr.c, leading to a heap-based buffer over-read and an application crash.</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>CVE-2018-16403</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X134" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16403</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>libelf/elf_end.c in elfutils 0.173 allows remote attackers to cause a denial of service (double free and application crash) or possibly have unspecified other impact because it tries to decompress twice.</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>CVE-2018-16402</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X135" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16402</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>dwarf_getaranges in dwarf_getaranges.c in libdw in elfutils before 2018-08-18 allows remote attackers to cause a denial of service (heap-based buffer over-read) via a crafted file.</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>CVE-2018-16062</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X136" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2018-16062</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>In elfutils 0.175, a heap-based buffer over-read was discovered in the function elf32_xlatetom in elf32_xlatetom.c in libelf. A crafted ELF input can cause a segmentation fault leading to denial of service (program crash) because ebl_core_note does not reject malformed core file notes.</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>CVE-2019-7665</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X137" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7665</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>In elfutils 0.175, a negative-sized memcpy is attempted in elf_cvt_note in libelf/note_xlate.h because of an incorrect overflow check. Crafted elf input causes a segmentation fault, leading to denial of service (program crash).</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>CVE-2019-7664</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X138" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7664</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>An issue was discovered in elfutils 0.175. A segmentation fault can occur in the function elf64_xlatetom in libelf/elf32_xlatetom.c, due to dwfl_segment_report_module not checking whether the dyn data read from a core file is truncated. A crafted input can cause a program crash, leading to denial-of-service, as demonstrated by eu-stack.</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>CVE-2019-7150</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X139" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7150</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>A heap-based buffer over-read was discovered in the function read_srclines in dwarf_getsrclines.c in libdw in elfutils 0.175. A crafted input can cause segmentation faults, leading to denial-of-service, as demonstrated by eu-nm.</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>CVE-2019-7149</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X140" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-7149</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>An issue was discovered in dbus &gt;= 1.3.0 before 1.12.18. The DBusServer in libdbus, as used in dbus-daemon, leaks file descriptors when a message exceeds the per-message file descriptor limit. A local attacker with access to the D-Bus system bus or another system service\'s private AF_UNIX socket could use this to make the system service reach its file descriptor limit, denying service to subsequent D-Bus clients.</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>CVE-2020-12049</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X141" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-12049</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>dbus before 1.10.28, 1.12.x before 1.12.16, and 1.13.x before 1.13.12, as used in DBusServer in Canonical Upstart in Ubuntu 14.04 (and in some, less common, uses of dbus-daemon), allows cookie spoofing because of symlink mishandling in the reference implementation of DBUS_COOKIE_SHA1 in the libdbus library. (This only affects the DBUS_COOKIE_SHA1 authentication mechanism.) A malicious client with write access to its own home directory could manipulate a ~/.dbus-keyrings symlink to cause a DBusServer with a different uid to read and write in unintended locations. In the worst case, this could result in the DBusServer reusing a cookie that is known to the malicious client, and treating that cookie as evidence that a subsequent client connection came from an attacker-chosen uid, allowing authentication bypass.</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>CVE-2019-12749</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X142" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-12749</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>An issue was discovered in dbus &gt;= 1.3.0 before 1.12.18. The DBusServer in libdbus, as used in dbus-daemon, leaks file descriptors when a message exceeds the per-message file descriptor limit. A local attacker with access to the D-Bus system bus or another system service\'s private AF_UNIX socket could use this to make the system service reach its file descriptor limit, denying service to subsequent D-Bus clients.</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>CVE-2020-12049</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>important</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X143" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2020-12049</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>In the GNU C Library (aka glibc or libc6) through 2.29, proceed_next_node in posix/regexec.c has a heap-based buffer over-read via an attempted case-insensitive regular-expression match.</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>CVE-2019-9169</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X144" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-9169</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>On the x86-64 architecture, the GNU C Library (aka glibc) before 2.31 fails to ignore the LD_PREFER_MAP_32BIT_EXEC environment variable during program execution after a security transition, allowing local attackers to restrict the possible mapping addresses for loaded libraries and thus bypass ASLR for a setuid program.</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>CVE-2019-19126</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X145" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-19126</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>libxslt through 1.1.33 allows bypass of a protection mechanism because callers of xsltCheckRead and xsltCheckWrite permit access even upon receiving a -1 error code. xsltCheckRead can return -1 for a crafted URL that is not actually invalid and is subsequently loaded.</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>CVE-2019-11068</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X146" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-11068</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>In xsltCopyText in transform.c in libxslt 1.1.33, a pointer variable isn\'t reset under certain circumstances. If the relevant memory area happened to be freed and reused in a certain way, a bounds check could fail and memory outside a buffer could be written to, or uninitialized data could be disclosed.</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>CVE-2019-18197</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X147" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-18197</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>In libssh2 v1.9.0 and earlier versions, the SSH_MSG_DISCONNECT logic in packet.c has an integer overflow in a bounds check, enabling an attacker to specify an arbitrary (out-of-bounds) offset for a subsequent memory read. A crafted SSH server may be able to disclose sensitive information or cause a denial of service condition on the client system when a user connects to the server.</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>CVE-2019-17498</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>moderate</t>
-        </is>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X148" t="inlineStr">
-        <is>
-          <t>https://access.redhat.com/security/cve/CVE-2019-17498</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>In Puma before versions 3.12.2 and 4.3.1, a poorly-behaved client could use keepalive requests to monopolize Puma\'s reactor and create a denial of service attack. If more keepalive connections to Puma are opened than there are threads available, additional connections will wait permanently if the attacker sends requests frequently enough. This vulnerability is patched in Puma 4.3.1 and 3.12.2.</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>CVE-2019-16770</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X149" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2019-16770</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>In Puma (RubyGem) before 4.3.2 and before 3.12.3, if an application using Puma allows untrusted input in a response header, an attacker can use newline characters (i.e. `CR`, `LF` or`/r`, `/n`) to end the header and inject malicious content, such as additional headers or an entirely new response body. This vulnerability is known as HTTP Response Splitting. While not an attack in itself, response splitting is a vector for several other attacks, such as cross-site scripting (XSS). This is related to CVE-2019-16254, which fixed this vulnerability for the WEBrick Ruby web server. This has been fixed in versions 4.3.2 and 3.12.3 by checking all headers for line endings and rejecting headers with those characters.</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>CVE-2020-5247</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X150" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-5247</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>In Puma (RubyGem) before 4.3.3 and 3.12.4, if an application using Puma allows untrusted input in an early-hints header, an attacker can use a carriage return character to end the header and inject malicious content, such as additional headers or an entirely new response body. This vulnerability is known as HTTP Response Splitting. While not an attack in itself, response splitting is a vector for several other attacks, such as cross-site scripting (XSS). This is related to CVE-2020-5247, which fixed this vulnerability but only for regular responses. This has been fixed in 4.3.3 and 3.12.4.</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>CVE-2020-5249</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X151" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-5249</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>In Puma (RubyGem) before 4.3.4 and 3.12.5, an attacker could smuggle an HTTP response, by using an invalid transfer-encoding header. The problem has been fixed in Puma 3.12.5 and Puma 4.3.4.</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>CVE-2020-11076</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X152" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-11076</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>In Puma (RubyGem) before 4.3.5 and 3.12.6, a client could smuggle a request through a proxy, causing the proxy to send a response back to another unknown client. If the proxy uses persistent connections and the client adds another request in via HTTP pipelining, the proxy may mistake it as the first request\'s body. Puma, however, would see it as two requests, and when processing the second request, send back a response that the proxy does not expect. If the proxy has reused the persistent connection to Puma to send another request for a different client, the second response from the first client will be sent to the second client. This is a similar but different vulnerability from CVE-2020-11076. The problem has been fixed in Puma 3.12.6 and Puma 4.3.5.</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>CVE-2020-11077</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X153" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-11077</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>There\'s a possible information leak / session hijack vulnerability in Rack (RubyGem rack). This vulnerability is patched in versions 1.6.12 and 2.0.8. Attackers may be able to find and hijack sessions by using timing attacks targeting the session id. Session ids are usually stored and indexed in a database that uses some kind of scheme for speeding up lookups of that session id. By carefully measuring the amount of time it takes to look up a session, an attacker may be able to find a valid session id and hijack the session. The session id itself may be generated randomly, but the way the session is indexed by the backing store does not use a secure comparison.</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>CVE-2019-16782</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X154" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2019-16782</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>A directory traversal vulnerability exists in rack &lt; 2.2.0 that allows an attacker perform directory traversal vulnerability in the Rack::Directory app that is bundled with Rack which could result in information disclosure.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>CVE-2020-8161</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X155" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-8161</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>A reliance on cookies without validation/integrity check security vulnerability exists in rack &lt; 2.2.3, rack &lt; 2.1.4 that makes it is possible for an attacker to forge a secure or host-only cookie prefix.</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>CVE-2020-8184</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N156" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X156" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-8184</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>The JSON gem through 2.2.0 for Ruby, as used in Ruby 2.4 through 2.4.9, 2.5 through 2.5.7, and 2.6 through 2.6.5, has an Unsafe Object Creation Vulnerability. This is quite similar to CVE-2013-0269, but does not rely on poor garbage-collection behavior within Ruby. Specifically, use of JSON parsing methods can lead to creation of a malicious object within the interpreter, with adverse effects that are application-dependent.</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>CVE-2020-10663</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>high</t>
-        </is>
-      </c>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X157" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-10663</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>There is an OS command injection vulnerability in Ruby Rake &lt; 12.3.3 in Rake::FileList when supplying a filename that begins with the pipe character `|`.</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>CVE-2020-8130</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>Banana</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>medium</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X158" t="inlineStr">
-        <is>
-          <t>https://web.nvd.nist.gov/view/vuln/detail?vulnId=CVE-2020-8130</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="B159" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Affected versions of `minimist` are vulnerable to prototype pollution. Arguments are not properly sanitized, allowing an attacker to modify the prototype of `Object`, causing the addition or modification of an existing property that will exist on all objects.   Parsing the argument `--__proto__.y=Polluted` adds a `y` property with value `Polluted` to all objects. The argument `--__proto__=Polluted` raises and uncaught error and crashes the application.   This is exploitable if attackers have control over the arguments being passed to `minimist`. </t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>NODE-SECURITY-1179</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X159" t="inlineStr">
-        <is>
-          <t>https://www.npmjs.com/advisories/1179</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Versions of `mem` prior to 4.0.0 are vulnerable to Denial of Service (DoS).  The package fails to remove old values from the cache even after a value passes its `maxAge` property. This may allow attackers to exhaust the system\'s memory if they are able to abuse the application logging.</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>NODE-SECURITY-1084</t>
-        </is>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X160" t="inlineStr">
-        <is>
-          <t>https://www.npmjs.com/advisories/1084</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="B161" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Affected versions of `minimist` are vulnerable to prototype pollution. Arguments are not properly sanitized, allowing an attacker to modify the prototype of `Object`, causing the addition or modification of an existing property that will exist on all objects.   Parsing the argument `--__proto__.y=Polluted` adds a `y` property with value `Polluted` to all objects. The argument `--__proto__=Polluted` raises and uncaught error and crashes the application.   This is exploitable if attackers have control over the arguments being passed to `minimist`. </t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>NODE-SECURITY-1179</t>
-        </is>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X161" t="inlineStr">
-        <is>
-          <t>https://www.npmjs.com/advisories/1179</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Versions of the npm CLI prior to 6.14.6 are vulnerable to an information exposure vulnerability through log files. The CLI supports URLs like \"&lt;protocol&gt;://[&lt;user&gt;[:&lt;password&gt;]@]&lt;hostname&gt;[:&lt;port&gt;][:][/]&lt;path&gt;\". The password value is not redacted and is printed to stdout and also to any generated log files.</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>CVE-2020-15095</t>
-        </is>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Scanned by Prisma Cloud Compute</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>low</t>
-        </is>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>docker-registry.default.svc:5000/mysite/ruby-ex:</t>
-        </is>
-      </c>
-      <c r="X162" t="inlineStr">
-        <is>
-          <t>https://www.npmjs.com/advisories/1543</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="22">
     <mergeCell ref="A1:Y1"/>
@@ -22386,117 +17961,117 @@
     <mergeCell ref="L6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="T2:T6 T8:T1048576">
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="2">
+    <cfRule dxfId="2" operator="equal" priority="24" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:R1048576 T2:U1048576 W2:W1048576">
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="13">
+    <cfRule dxfId="13" operator="equal" priority="18" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="11">
+    <cfRule dxfId="11" operator="equal" priority="19" type="cellIs">
       <formula>"Very Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="0">
+    <cfRule dxfId="0" operator="equal" priority="21" type="cellIs">
       <formula>"Very Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="4">
+    <cfRule dxfId="4" operator="equal" priority="22" type="cellIs">
       <formula>"Very High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="3">
+    <cfRule dxfId="3" operator="equal" priority="23" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="1">
+    <cfRule dxfId="1" operator="equal" priority="25" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576 T2:U1048576 W2:W1048576">
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="1">
+    <cfRule dxfId="1" operator="equal" priority="20" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R1048576">
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="13">
+    <cfRule dxfId="13" operator="equal" priority="17" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y1048576">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="15">
+    <cfRule dxfId="15" operator="equal" priority="11" type="cellIs">
       <formula>"Very High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="14">
+    <cfRule dxfId="14" operator="equal" priority="12" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="13">
+    <cfRule dxfId="13" operator="equal" priority="13" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="10">
+    <cfRule dxfId="10" operator="equal" priority="14" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="11">
+    <cfRule dxfId="11" operator="equal" priority="15" type="cellIs">
       <formula>"Very Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="10">
+    <cfRule dxfId="10" operator="equal" priority="16" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V8">
-    <cfRule type="cellIs" priority="6" operator="equal" dxfId="4">
+    <cfRule dxfId="4" operator="equal" priority="6" type="cellIs">
       <formula>"Very High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" dxfId="3">
+    <cfRule dxfId="3" operator="equal" priority="7" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" dxfId="2">
+    <cfRule dxfId="2" operator="equal" priority="8" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" dxfId="1">
+    <cfRule dxfId="1" operator="equal" priority="9" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="10" operator="equal" dxfId="0">
+    <cfRule dxfId="0" operator="equal" priority="10" type="cellIs">
       <formula>"Very Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V12">
-    <cfRule type="cellIs" priority="1" operator="equal" dxfId="4">
+    <cfRule dxfId="4" operator="equal" priority="1" type="cellIs">
       <formula>"Very High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="2" operator="equal" dxfId="3">
+    <cfRule dxfId="3" operator="equal" priority="2" type="cellIs">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" dxfId="2">
+    <cfRule dxfId="2" operator="equal" priority="3" type="cellIs">
       <formula>"Moderate"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" dxfId="1">
+    <cfRule dxfId="1" operator="equal" priority="4" type="cellIs">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" dxfId="0">
+    <cfRule dxfId="0" operator="equal" priority="5" type="cellIs">
       <formula>"Very Low"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="14">
-    <dataValidation sqref="S7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Describe the identified threat(s) and relevance to the information system."/>
-    <dataValidation sqref="Q7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Severity assessment of the relative importance of mitigating/remediating the vulnerability. The severity can be determined by the extent of the potential adverse impact if such a vulnerability is exploited by a threat source."/>
-    <dataValidation sqref="Y7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Indicate the risk level expected after any proposed mitigations are implemented.  Proposed mitigations should be appropriately documented as POA&amp;M milestones"/>
-    <dataValidation sqref="R7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Determine the relevance of the threat by identifying potential threat events, relevance of the events, and threat sources that could initiate the events"/>
-    <dataValidation sqref="X7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Provide a summary of the recommended actions that will further address/reduce the risk of this vulnerability."/>
-    <dataValidation sqref="M7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Identify the initial or starting severity of the vulnerability prior to implementing mitigations and/or compensating Controls. Typically determined by reviewing DISA publication guides, checklists, and/or databases from vulnerability scan engines"/>
-    <dataValidation sqref="P7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="A predisposing condition is a condition existing within an organization, a mission or business process, enterprise architecture, information system/PIT, or environment of operation, which affects liklihood of threat events."/>
-    <dataValidation sqref="O7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Describe any currently implemented mitigations and/or compensating Controls that will reduce the risk. A planned mitigation or compensating Control cannot lower risk until implemented"/>
-    <dataValidation sqref="U7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="Identify the level of impact as the magnitude of potential harm to organizational operations, organizational assets, individuals, other organizations, or the Nation from the threat event."/>
-    <dataValidation sqref="N7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data Entry:" prompt="List any affected devices by hostname. If all devices in the information system are affected, state 'system' or 'all'."/>
-    <dataValidation sqref="W7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data:" prompt="Determine the level of risk to organizational operations, organizational assets, individuals, other organizations, or the Nation as a combination of likelihood and impact"/>
-    <dataValidation sqref="T7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Data:" prompt="Likelihood can be determined as a combination of the vulnerability severity/predisposing condition pervasiveness and the relevance of the threat."/>
-    <dataValidation sqref="G7" showErrorMessage="1" showInputMessage="1" allowBlank="0" promptTitle="Date Entry:" prompt="DD-MMM-YY"/>
-    <dataValidation sqref="G13:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Invalid Input:" error="Please enter information in date format (ex DD-MMM-YY)" type="date" operator="greaterThan">
+    <dataValidation allowBlank="0" prompt="Describe the identified threat(s) and relevance to the information system." promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="S7"/>
+    <dataValidation allowBlank="0" prompt="Severity assessment of the relative importance of mitigating/remediating the vulnerability. The severity can be determined by the extent of the potential adverse impact if such a vulnerability is exploited by a threat source." promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="Q7"/>
+    <dataValidation allowBlank="0" prompt="Indicate the risk level expected after any proposed mitigations are implemented.  Proposed mitigations should be appropriately documented as POA&amp;M milestones" promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="Y7"/>
+    <dataValidation allowBlank="0" prompt="Determine the relevance of the threat by identifying potential threat events, relevance of the events, and threat sources that could initiate the events" promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="R7"/>
+    <dataValidation allowBlank="0" prompt="Provide a summary of the recommended actions that will further address/reduce the risk of this vulnerability." promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="X7"/>
+    <dataValidation allowBlank="0" prompt="Identify the initial or starting severity of the vulnerability prior to implementing mitigations and/or compensating Controls. Typically determined by reviewing DISA publication guides, checklists, and/or databases from vulnerability scan engines" promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="M7"/>
+    <dataValidation allowBlank="0" prompt="A predisposing condition is a condition existing within an organization, a mission or business process, enterprise architecture, information system/PIT, or environment of operation, which affects liklihood of threat events." promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="P7"/>
+    <dataValidation allowBlank="0" prompt="Describe any currently implemented mitigations and/or compensating Controls that will reduce the risk. A planned mitigation or compensating Control cannot lower risk until implemented" promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="O7"/>
+    <dataValidation allowBlank="0" prompt="Identify the level of impact as the magnitude of potential harm to organizational operations, organizational assets, individuals, other organizations, or the Nation from the threat event." promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="U7"/>
+    <dataValidation allowBlank="0" prompt="List any affected devices by hostname. If all devices in the information system are affected, state 'system' or 'all'." promptTitle="Data Entry:" showErrorMessage="1" showInputMessage="1" sqref="N7"/>
+    <dataValidation allowBlank="0" prompt="Determine the level of risk to organizational operations, organizational assets, individuals, other organizations, or the Nation as a combination of likelihood and impact" promptTitle="Data:" showErrorMessage="1" showInputMessage="1" sqref="W7"/>
+    <dataValidation allowBlank="0" prompt="Likelihood can be determined as a combination of the vulnerability severity/predisposing condition pervasiveness and the relevance of the threat." promptTitle="Data:" showErrorMessage="1" showInputMessage="1" sqref="T7"/>
+    <dataValidation allowBlank="0" prompt="DD-MMM-YY" promptTitle="Date Entry:" showErrorMessage="1" showInputMessage="1" sqref="G7"/>
+    <dataValidation allowBlank="0" error="Please enter information in date format (ex DD-MMM-YY)" errorTitle="Invalid Input:" operator="greaterThan" showErrorMessage="1" showInputMessage="1" sqref="G13:G1048576" type="date">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="J6" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" scale="53" fitToHeight="0"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" scale="53"/>
 </worksheet>
 </file>
 
@@ -22514,10 +18089,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col width="151.6640625" customWidth="1" style="8" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" style="8" width="151.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="1">
       <c r="A1" s="55" t="inlineStr">
         <is>
           <t>POA&amp;M Template Instructions</t>
@@ -22529,7 +18104,7 @@
       <c r="E1" s="55" t="n"/>
       <c r="F1" s="55" t="n"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="2">
       <c r="A2" s="57" t="inlineStr">
         <is>
           <t>1.) This POA&amp;M Template is intended for RMF Systems only. If documenting POA&amp;M Items for a DIACAP System, please download the DIACAP POA&amp;M Template available on the eMASS Help page.</t>
@@ -22541,7 +18116,7 @@
       <c r="E2" s="56" t="n"/>
       <c r="F2" s="56" t="n"/>
     </row>
-    <row r="3" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="3">
       <c r="A3" s="57" t="inlineStr">
         <is>
           <t>2.) Enter valid information into the fields on the POA&amp;M Template.</t>
@@ -22553,7 +18128,7 @@
       <c r="E3" s="56" t="n"/>
       <c r="F3" s="56" t="n"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="4">
       <c r="A4" s="57" t="inlineStr">
         <is>
           <t>3.) Control Vulnerability Description - Describe the vulnerability associated with each non-compliant security control. This should be the test tool defined vulnerability description.</t>
@@ -22565,7 +18140,7 @@
       <c r="E4" s="56" t="n"/>
       <c r="F4" s="56" t="n"/>
     </row>
-    <row r="5" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="5">
       <c r="A5" s="57" t="inlineStr">
         <is>
           <t>4.) Security Control Number (NC/NA controls only) - List the affected security control.</t>
@@ -22577,7 +18152,7 @@
       <c r="E5" s="56" t="n"/>
       <c r="F5" s="56" t="n"/>
     </row>
-    <row r="6" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="6">
       <c r="A6" s="57" t="inlineStr">
         <is>
           <t>5.) Office/Org - When entering Office/Org, enter Organization, First Name Last Name, Phone Number, Email.  At a minimum, the Office/Org must be defined for each POA&amp;M Item. If multiple fields are entered, ensure each field is separated by a comma.  Do not separate first and last name with a comma.</t>
@@ -22589,7 +18164,7 @@
       <c r="E6" s="56" t="n"/>
       <c r="F6" s="56" t="n"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="7">
       <c r="A7" s="57" t="inlineStr">
         <is>
           <t>6.) Security Checks - NIST -53Rev 4 Assessment Procedure, STIG / SRG Vulnerability ID, or ACAS Plugin ID (Do not leave this field blank).</t>
@@ -22601,7 +18176,7 @@
       <c r="E7" s="56" t="n"/>
       <c r="F7" s="56" t="n"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="8">
       <c r="A8" s="57" t="inlineStr">
         <is>
           <t>7.) Resources Required - What resources are required in order to address the vulnerability.</t>
@@ -22613,7 +18188,7 @@
       <c r="E8" s="56" t="n"/>
       <c r="F8" s="56" t="n"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="9">
       <c r="A9" s="57" t="inlineStr">
         <is>
           <t>8.) Scheduled Completion Date - When does the program anticipate remediating the vulnerability.</t>
@@ -22625,7 +18200,7 @@
       <c r="E9" s="56" t="n"/>
       <c r="F9" s="56" t="n"/>
     </row>
-    <row r="10" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="10">
       <c r="A10" s="57" t="inlineStr">
         <is>
           <t>9.) Milestone with Completion Dates - List milestones and completions dates. If a POA&amp;M Item has multiple milestones, each milestone must be entered in separate rows within the Milestone w/Completion Date field.</t>
@@ -22637,7 +18212,7 @@
       <c r="E10" s="56" t="n"/>
       <c r="F10" s="56" t="n"/>
     </row>
-    <row r="11" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="11">
       <c r="A11" s="57" t="inlineStr">
         <is>
           <t>10.) Milestone Changes - List any milestone changes / deviations. If a POA&amp;M Item has multiple milestone changes, each milestone change must be entered chronologically in separate rows within the Milestone Changes field.</t>
@@ -22649,7 +18224,7 @@
       <c r="E11" s="56" t="n"/>
       <c r="F11" s="56" t="n"/>
     </row>
-    <row r="12" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="12">
       <c r="A12" s="57" t="inlineStr">
         <is>
           <t>11.) Source Identifying Vulnerability - NIST 800-53Rev4 AP, STIG (List STIG name), ACAS.
@@ -22662,7 +18237,7 @@
       <c r="E12" s="56" t="n"/>
       <c r="F12" s="56" t="n"/>
     </row>
-    <row r="13" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="13">
       <c r="A13" s="57" t="inlineStr">
         <is>
           <t>12.) Status - N/A, Ongoing, Completed.
@@ -22675,7 +18250,7 @@
       <c r="E13" s="56" t="n"/>
       <c r="F13" s="56" t="n"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="14">
       <c r="A14" s="57" t="inlineStr">
         <is>
           <t>13.) Comments - Add any additional feedback not covered in specific POA&amp;M fields.</t>
@@ -22687,7 +18262,7 @@
       <c r="E14" s="56" t="n"/>
       <c r="F14" s="56" t="n"/>
     </row>
-    <row r="15" ht="64" customHeight="1">
+    <row customHeight="1" ht="64" r="15">
       <c r="A15" s="57" t="inlineStr">
         <is>
           <t>14.) Raw Severity - Record the initial severity as identified by the test methodology (e.g., CAT I/II/III for STIG findings; Low/Med/High/Critical for ACAS findings)." 
@@ -22700,14 +18275,14 @@
       <c r="E15" s="56" t="n"/>
       <c r="F15" s="56" t="n"/>
     </row>
-    <row r="16" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="16">
       <c r="A16" s="57" t="inlineStr">
         <is>
           <t>15.) Devices Affected - List affected devices (by hostname). Devices of varying configuration and purpose may be impacted differently by a vulnerability and should be listed as separate line items in the RAR for risk analysis.</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="64" customHeight="1">
+    <row customHeight="1" ht="64" r="17">
       <c r="A17" s="57" t="inlineStr">
         <is>
           <t>16.) Mitigations - Technical mitigation(s) that are present and further reduce the initial severity. Enter "none" if there is no applied mitigation that decreases severity/pervasiveness.
@@ -22715,7 +18290,7 @@
         </is>
       </c>
     </row>
-    <row r="18" ht="64" customHeight="1">
+    <row customHeight="1" ht="64" r="18">
       <c r="A18" s="74" t="inlineStr">
         <is>
           <t>17.) Predisposing Conditions - Predisposing condition(s) that affect the raw severity value. Enter "none" if there is no relevant condition that increases or decreases severity/pervasiveness.
@@ -22723,7 +18298,7 @@
         </is>
       </c>
     </row>
-    <row r="19" ht="144" customHeight="1">
+    <row customHeight="1" ht="144" r="19">
       <c r="A19" s="74" t="inlineStr">
         <is>
           <t>18.) Severity - Vulnerability severity is derived from the raw vulnerability, adjusted by relevant predisposing conditions and mitigations. If there are no relevant predisposing conditions or applied technical mitigation(s), the severity aligns with the raw test results.
@@ -22736,7 +18311,7 @@
         </is>
       </c>
     </row>
-    <row r="20" ht="240" customHeight="1">
+    <row customHeight="1" ht="240" r="20">
       <c r="A20" s="57" t="inlineStr">
         <is>
           <t>19.) Relevance of Threat - Determine whether the threat source is adversarial or non-adversarial in nature. 
@@ -22752,7 +18327,7 @@
         </is>
       </c>
     </row>
-    <row r="21" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="21">
       <c r="A21" s="57" t="inlineStr">
         <is>
           <t>20.) Threat Description - Enter description supporting the value listed in the Relevance of Threat field. Identify adversarial vs. non-adversarial; for non-adversarial, identify portion of resources affected and whether any critical resources are affected. 
@@ -22760,7 +18335,7 @@
         </is>
       </c>
     </row>
-    <row r="22" ht="272" customHeight="1">
+    <row customHeight="1" ht="272" r="22">
       <c r="A22" s="57" t="inlineStr">
         <is>
           <t>21.) Likelihood - Note: This value is automatically calculated as a result of "Severity" and "Relevance of Threat". 
@@ -22776,7 +18351,7 @@
         </is>
       </c>
     </row>
-    <row r="23" ht="160" customHeight="1">
+    <row customHeight="1" ht="160" r="23">
       <c r="A23" s="57" t="inlineStr">
         <is>
           <t>22.) Impact - Determine the adverse impact (i.e., potential harm to organizational operations, organizational assets, individuals, other organizations, or the Nation) from the threat event. Risk assessors may consider the Concept of Operations, system description, User Representative input, etc. (See Table 6 on the RMF KS page "Model for Assessing Residual Risk Level for Non-Compliant Security Controls" for descriptions of the values assigned to impact.)
@@ -22789,7 +18364,7 @@
         </is>
       </c>
     </row>
-    <row r="24" ht="48" customHeight="1">
+    <row customHeight="1" ht="48" r="24">
       <c r="A24" s="57" t="inlineStr">
         <is>
           <t>23.) Impact Description - Describe the impact to the mission, information system, organization and organizational assets, other organizations, individuals, or the Nation as a result of exploitation of the vulnerability/weakness. 
@@ -22797,7 +18372,7 @@
         </is>
       </c>
     </row>
-    <row r="25" ht="192" customHeight="1">
+    <row customHeight="1" ht="192" r="25">
       <c r="A25" s="57" t="inlineStr">
         <is>
           <t>24.) Residual Risk Level - Note: This value is automatically calculated as a result of "Likelihood" and "Impact" fields.
@@ -22812,45 +18387,45 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="26">
       <c r="A26" s="57" t="inlineStr">
         <is>
           <t>25.) Recommendations - The PM/SM lists the recommendations addressing actions that will at a minimum reduce the High and Very High Risk non-compliant security controls to a Moderate Risk.</t>
         </is>
       </c>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="27">
       <c r="A27" s="57" t="inlineStr">
         <is>
           <t>26.) Resulting Residual Risk after Proposed Mitigations - Indicate the risk level expected after the proposed mitigations are implemented.</t>
         </is>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="28">
       <c r="A28" s="58" t="n"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="29">
       <c r="A29" s="59" t="inlineStr">
         <is>
           <t>Situational Awareness</t>
         </is>
       </c>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="30">
       <c r="A30" s="57" t="inlineStr">
         <is>
           <t>1.) To import a System-level POA&amp;M Item, the Security Control Number field must be left blank.</t>
         </is>
       </c>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="31">
       <c r="A31" s="57" t="inlineStr">
         <is>
           <t>2.) To import a Control-level POA&amp;M Item, enter the appropriate Control Acronym (e.g., AC-3) into the Security Control Number field.</t>
         </is>
       </c>
     </row>
-    <row r="32" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="32">
       <c r="A32" s="57" t="inlineStr">
         <is>
           <t>3.) To import an Assessment Procedure-level POA&amp;M Item, enter the appropriate AP Acronym (e.g., AC-3.1) into the Security Control Number field.</t>
@@ -22864,7 +18439,7 @@
       <c r="G32" s="56" t="n"/>
       <c r="H32" s="56" t="n"/>
     </row>
-    <row r="33" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="33">
       <c r="A33" s="57" t="inlineStr">
         <is>
           <t>4.) For unapproved POA&amp;M Items, the Milestone Scheduled Completion Date cannot exceed that of the overall Scheduled Completion Date. For POA&amp;M Items that have a Review Status of "Approved" in eMASS, a Milestone Scheduled Completion Date can be set beyond that of the overall Scheduled Completion Date to create a pending Extension Date.</t>
@@ -22878,7 +18453,7 @@
       <c r="G33" s="56" t="n"/>
       <c r="H33" s="56" t="n"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
+    <row customHeight="1" ht="16" r="34">
       <c r="A34" s="57" t="inlineStr">
         <is>
           <t>5.) Dates in the Status (for Completed &amp; AO Approved Risk Accepted POA&amp;M Items), Milestones w/Completion Dates, and Milestone Changes fields must be entered after text.</t>
@@ -22892,7 +18467,7 @@
       <c r="G34" s="56" t="n"/>
       <c r="H34" s="56" t="n"/>
     </row>
-    <row r="35" ht="32" customHeight="1">
+    <row customHeight="1" ht="32" r="35">
       <c r="A35" s="57" t="inlineStr">
         <is>
           <t>6.) Values for the optional fields of Impact and Residual Risk Level should be reflective of the DoD-defined risk calculation matrixes in Tables 8 and 9 on the RMF Knowledge Service (https://rmfks.osd.mil/rmf/RMFImplementation/AssessControls/Pages/ResidualRisk.aspx).</t>
@@ -22906,7 +18481,7 @@
       <c r="G35" s="56" t="n"/>
       <c r="H35" s="56" t="n"/>
     </row>
-    <row r="36" ht="17" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="17" r="36" thickBot="1">
       <c r="A36" s="75" t="inlineStr">
         <is>
           <t>7.) Do not delete columns/sheets, delete the classification label, or add additional columns. Doing so may have a negative impact on the ability for eMASS to ingest the template.</t>
@@ -22920,7 +18495,7 @@
       <c r="G36" s="56" t="n"/>
       <c r="H36" s="56" t="n"/>
     </row>
-    <row r="37" ht="16" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16" r="37" thickBot="1">
       <c r="A37" s="60" t="n"/>
       <c r="B37" s="130" t="inlineStr">
         <is>
@@ -22934,7 +18509,7 @@
       <c r="G37" s="131" t="n"/>
       <c r="H37" s="132" t="n"/>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="38">
       <c r="A38" s="60" t="n"/>
       <c r="B38" s="106" t="inlineStr">
         <is>
@@ -22952,7 +18527,7 @@
       <c r="G38" s="135" t="n"/>
       <c r="H38" s="136" t="n"/>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="39">
       <c r="A39" s="60" t="n"/>
       <c r="B39" s="137" t="n"/>
       <c r="C39" s="138" t="n"/>
@@ -22962,7 +18537,7 @@
       <c r="G39" s="118" t="n"/>
       <c r="H39" s="139" t="n"/>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="40">
       <c r="A40" s="60" t="n"/>
       <c r="B40" s="140" t="n"/>
       <c r="C40" s="126" t="n"/>
@@ -22992,7 +18567,7 @@
         </is>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="41">
       <c r="A41" s="60" t="n"/>
       <c r="B41" s="141" t="inlineStr">
         <is>
@@ -23026,7 +18601,7 @@
         </is>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="42">
       <c r="A42" s="60" t="n"/>
       <c r="B42" s="141" t="inlineStr">
         <is>
@@ -23060,7 +18635,7 @@
         </is>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="43">
       <c r="A43" s="60" t="n"/>
       <c r="B43" s="141" t="inlineStr">
         <is>
@@ -23094,7 +18669,7 @@
         </is>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="44">
       <c r="A44" s="60" t="n"/>
       <c r="B44" s="141" t="inlineStr">
         <is>
@@ -23128,7 +18703,7 @@
         </is>
       </c>
     </row>
-    <row r="45" ht="16" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16" r="45" thickBot="1">
       <c r="A45" s="60" t="n"/>
       <c r="B45" s="142" t="inlineStr">
         <is>
@@ -23162,7 +18737,7 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row customHeight="1" ht="15" r="46">
       <c r="A46" s="60" t="n"/>
       <c r="B46" s="60" t="n"/>
       <c r="C46" s="60" t="n"/>
@@ -23172,7 +18747,7 @@
       <c r="G46" s="60" t="n"/>
       <c r="H46" s="60" t="n"/>
     </row>
-    <row r="47" ht="16" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16" r="47" thickBot="1">
       <c r="A47" s="60" t="n"/>
       <c r="B47" s="60" t="n"/>
       <c r="C47" s="60" t="n"/>
@@ -23182,7 +18757,7 @@
       <c r="G47" s="60" t="n"/>
       <c r="H47" s="60" t="n"/>
     </row>
-    <row r="48" ht="16" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="16" r="48" thickBot="1">
       <c r="B48" s="144" t="inlineStr">
         <is>
           <t>Combination of Likelihood and Impact</t>
@@ -23222,7 +18797,7 @@
       <c r="G50" s="118" t="n"/>
       <c r="H50" s="139" t="n"/>
     </row>
-    <row r="51" ht="20.25" customHeight="1">
+    <row customHeight="1" ht="20.25" r="51">
       <c r="B51" s="140" t="n"/>
       <c r="C51" s="126" t="n"/>
       <c r="D51" s="100" t="inlineStr">
@@ -23383,7 +18958,7 @@
         </is>
       </c>
     </row>
-    <row r="56" ht="14" customHeight="1" thickBot="1">
+    <row customHeight="1" ht="14" r="56" thickBot="1">
       <c r="B56" s="142" t="inlineStr">
         <is>
           <t>Very Low</t>
@@ -23435,7 +19010,7 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B48:H48"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" fitToHeight="0" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" horizontalDpi="1200" orientation="portrait" verticalDpi="1200"/>
 </worksheet>
 </file>